--- a/docs/Metrics for 2012 Plans.xlsx
+++ b/docs/Metrics for 2012 Plans.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11205"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alecramsay/dev/bias-irl/docs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alecramsay/Documents/dev/bias-irl/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{388C0797-3B3E-FA47-8546-573342FDE5DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9CFAC26-44A8-8B4E-A5A7-EA2DBE9CD135}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1240" yWindow="500" windowWidth="27560" windowHeight="17500" activeTab="1" xr2:uid="{F08C87BC-C96D-1A4F-8DA4-EEEA4D15A1AA}"/>
+    <workbookView xWindow="1400" yWindow="500" windowWidth="27560" windowHeight="17500" activeTab="1" xr2:uid="{F08C87BC-C96D-1A4F-8DA4-EEEA4D15A1AA}"/>
   </bookViews>
   <sheets>
     <sheet name="Table 1a" sheetId="1" r:id="rId1"/>
@@ -498,263 +498,204 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="104">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -787,16 +728,19 @@
     <xf numFmtId="164" fontId="1" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
   </cellXfs>
@@ -1128,1621 +1072,1478 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.6640625" style="31" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.1640625" style="31" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.1640625" style="32" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.33203125" style="33" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="3.6640625" style="32" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5" style="34" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.33203125" style="42" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.1640625" style="34" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.83203125" style="32" customWidth="1"/>
-    <col min="10" max="10" width="6.83203125" style="42" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7" style="35" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.1640625" style="32" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.83203125" style="35" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6.83203125" style="33" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="6.83203125" style="32" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="6.83203125" style="33" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="6.83203125" style="32" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="4.83203125" style="32" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="3.83203125" style="70" customWidth="1"/>
-    <col min="21" max="22" width="3.83203125" style="32" customWidth="1"/>
-    <col min="23" max="23" width="9.1640625" style="31" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.5" style="31" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="44.33203125" style="6" customWidth="1"/>
+    <col min="1" max="1" width="4.6640625" style="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.1640625" style="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.1640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.33203125" style="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="3.6640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5" style="26" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.33203125" style="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.1640625" style="26" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.83203125" style="8" customWidth="1"/>
+    <col min="10" max="10" width="6.83203125" style="10" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7" style="9" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.1640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.83203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.83203125" style="11" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="6.83203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="6.83203125" style="11" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="6.83203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="4.83203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="3.83203125" style="56" customWidth="1"/>
+    <col min="21" max="22" width="3.83203125" style="8" customWidth="1"/>
+    <col min="23" max="23" width="9.1640625" style="12" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.5" style="12" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="44.33203125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="41" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="56" t="s">
+      <c r="B1" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="56" t="s">
+      <c r="C1" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="57" t="s">
+      <c r="D1" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="58" t="s">
+      <c r="E1" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="58" t="s">
+      <c r="F1" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="59" t="s">
+      <c r="G1" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="56" t="s">
+      <c r="H1" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="56" t="s">
+      <c r="I1" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="J1" s="60" t="s">
+      <c r="J1" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="56" t="s">
+      <c r="K1" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="56" t="s">
+      <c r="L1" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="M1" s="56" t="s">
+      <c r="M1" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="N1" s="60" t="s">
+      <c r="N1" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="O1" s="56" t="s">
+      <c r="O1" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="P1" s="61" t="s">
+      <c r="P1" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="Q1" s="60" t="s">
+      <c r="Q1" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="R1" s="56" t="s">
+      <c r="R1" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="S1" s="66" t="s">
+      <c r="S1" s="52" t="s">
         <v>48</v>
       </c>
-      <c r="T1" s="71" t="s">
+      <c r="T1" s="57" t="s">
         <v>51</v>
       </c>
-      <c r="U1" s="8"/>
-      <c r="V1" s="8"/>
-      <c r="W1" s="9"/>
-      <c r="X1" s="9"/>
+      <c r="U1" s="6"/>
+      <c r="V1" s="6"/>
+      <c r="W1" s="7"/>
+      <c r="X1" s="7"/>
       <c r="Y1" s="5" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:25" ht="17" x14ac:dyDescent="0.2">
-      <c r="A2" s="62" t="s">
+      <c r="A2" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="10">
+      <c r="B2" s="8">
         <v>0.59209999999999996</v>
       </c>
-      <c r="C2" s="10">
+      <c r="C2" s="8">
         <v>0.72929999999999995</v>
       </c>
-      <c r="D2" s="12">
+      <c r="D2" s="10">
         <v>2.4899</v>
       </c>
-      <c r="E2" s="11">
+      <c r="E2" s="9">
         <v>1.9390000000000001</v>
       </c>
-      <c r="F2" s="11">
+      <c r="F2" s="9">
         <v>0.31569999999999998</v>
       </c>
-      <c r="G2" s="49">
+      <c r="G2" s="37">
         <v>-3.0045000000000002</v>
       </c>
-      <c r="H2" s="10">
+      <c r="H2" s="8">
         <v>9.2299999999999993E-2</v>
       </c>
-      <c r="I2" s="10">
+      <c r="I2" s="8">
         <v>-9.7000000000000003E-3</v>
       </c>
-      <c r="J2" s="13">
+      <c r="J2" s="11">
         <v>-1.7899999999999999E-2</v>
       </c>
-      <c r="K2" s="10">
+      <c r="K2" s="8">
         <v>-6.1000000000000004E-3</v>
       </c>
-      <c r="L2" s="10">
+      <c r="L2" s="8">
         <v>3.2899999999999999E-2</v>
       </c>
-      <c r="M2" s="10">
+      <c r="M2" s="8">
         <v>-1.7899999999999999E-2</v>
       </c>
-      <c r="N2" s="13">
+      <c r="N2" s="11">
         <v>-0.13719999999999999</v>
       </c>
-      <c r="O2" s="10">
+      <c r="O2" s="8">
         <v>-4.5100000000000001E-2</v>
       </c>
-      <c r="P2" s="63">
+      <c r="P2" s="49">
         <v>-5.0700000000000002E-2</v>
       </c>
-      <c r="Q2" s="13">
+      <c r="Q2" s="11">
         <v>-0.1444</v>
       </c>
-      <c r="R2" s="10">
+      <c r="R2" s="8">
         <v>-0.14099999999999999</v>
       </c>
-      <c r="S2" s="67">
+      <c r="S2" s="53">
         <v>-7.4730999999999996</v>
       </c>
-      <c r="T2" s="72" t="s">
+      <c r="T2" s="58" t="s">
         <v>53</v>
       </c>
-      <c r="U2" s="10"/>
-      <c r="V2" s="10"/>
-      <c r="W2" s="14"/>
-      <c r="X2" s="14"/>
       <c r="Y2" s="3" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:25" s="54" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A3" s="62" t="s">
+    <row r="3" spans="1:25" ht="17" x14ac:dyDescent="0.2">
+      <c r="A3" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="10">
+      <c r="B3" s="8">
         <v>0.60009999999999997</v>
       </c>
-      <c r="C3" s="10">
+      <c r="C3" s="8">
         <v>0.74650000000000005</v>
       </c>
-      <c r="D3" s="12">
+      <c r="D3" s="10">
         <v>2.4630000000000001</v>
       </c>
-      <c r="E3" s="11">
+      <c r="E3" s="9">
         <v>3.1497000000000002</v>
       </c>
-      <c r="F3" s="11">
+      <c r="F3" s="9">
         <v>0.11749999999999999</v>
       </c>
-      <c r="G3" s="49">
+      <c r="G3" s="37">
         <v>5.6847000000000003</v>
       </c>
-      <c r="H3" s="10">
+      <c r="H3" s="8">
         <v>0.1166</v>
       </c>
-      <c r="I3" s="10">
+      <c r="I3" s="8">
         <v>2.1700000000000001E-2</v>
       </c>
-      <c r="J3" s="13">
+      <c r="J3" s="11">
         <v>6.5299999999999997E-2</v>
       </c>
-      <c r="K3" s="10">
+      <c r="K3" s="8">
         <v>1.77E-2</v>
       </c>
-      <c r="L3" s="10">
+      <c r="L3" s="8">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="M3" s="10">
+      <c r="M3" s="8">
         <v>2.12E-2</v>
       </c>
-      <c r="N3" s="13">
+      <c r="N3" s="11">
         <v>-0.1464</v>
       </c>
-      <c r="O3" s="10">
+      <c r="O3" s="8">
         <v>-4.6300000000000001E-2</v>
       </c>
-      <c r="P3" s="83">
+      <c r="P3" s="65">
         <v>6.8699999999999997E-2</v>
       </c>
-      <c r="Q3" s="13">
+      <c r="Q3" s="11">
         <v>-0.13539999999999999</v>
       </c>
-      <c r="R3" s="10">
+      <c r="R3" s="8">
         <v>-0.15989999999999999</v>
       </c>
-      <c r="S3" s="67">
+      <c r="S3" s="53">
         <v>-2.8780999999999999</v>
       </c>
-      <c r="T3" s="72" t="s">
+      <c r="T3" s="58" t="s">
         <v>53</v>
       </c>
-      <c r="U3" s="10"/>
-      <c r="V3" s="10"/>
-      <c r="W3" s="14"/>
-      <c r="X3" s="14"/>
       <c r="Y3" s="3" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:25" ht="17" x14ac:dyDescent="0.2">
-      <c r="A4" s="62" t="s">
+      <c r="A4" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="10">
+      <c r="B4" s="8">
         <v>0.59340000000000004</v>
       </c>
-      <c r="C4" s="10">
+      <c r="C4" s="8">
         <v>0.84960000000000002</v>
       </c>
-      <c r="D4" s="12">
+      <c r="D4" s="10">
         <v>3.7441</v>
       </c>
-      <c r="E4" s="11">
+      <c r="E4" s="9">
         <v>1.0767</v>
       </c>
-      <c r="F4" s="11">
+      <c r="F4" s="9">
         <v>0.72870000000000001</v>
       </c>
-      <c r="G4" s="49">
+      <c r="G4" s="37">
         <v>-33.044199999999996</v>
       </c>
-      <c r="H4" s="10">
+      <c r="H4" s="8">
         <v>4.0599999999999997E-2</v>
       </c>
-      <c r="I4" s="10">
+      <c r="I4" s="8">
         <v>-1.09E-2</v>
       </c>
-      <c r="J4" s="13">
+      <c r="J4" s="11">
         <v>-5.45E-2</v>
       </c>
-      <c r="K4" s="10">
+      <c r="K4" s="8">
         <v>-1.01E-2</v>
       </c>
-      <c r="L4" s="10">
+      <c r="L4" s="8">
         <v>1.37E-2</v>
       </c>
-      <c r="M4" s="10">
+      <c r="M4" s="8">
         <v>-2.6700000000000002E-2</v>
       </c>
-      <c r="N4" s="13">
+      <c r="N4" s="11">
         <v>-0.25619999999999998</v>
       </c>
-      <c r="O4" s="10">
+      <c r="O4" s="8">
         <v>-0.1628</v>
       </c>
-      <c r="P4" s="63">
+      <c r="P4" s="49">
         <v>-0.249</v>
       </c>
-      <c r="Q4" s="13">
+      <c r="Q4" s="11">
         <v>-0.22459999999999999</v>
       </c>
-      <c r="R4" s="10">
+      <c r="R4" s="8">
         <v>-0.2205</v>
       </c>
-      <c r="S4" s="67">
+      <c r="S4" s="53">
         <v>-1.7637</v>
       </c>
-      <c r="T4" s="72" t="s">
+      <c r="T4" s="58" t="s">
         <v>53</v>
       </c>
-      <c r="U4" s="10"/>
-      <c r="V4" s="10"/>
-      <c r="W4" s="14"/>
-      <c r="X4" s="14"/>
       <c r="Y4" s="3" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="1:25" s="54" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A5" s="62" t="s">
+    <row r="5" spans="1:25" ht="17" x14ac:dyDescent="0.2">
+      <c r="A5" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="10">
+      <c r="B5" s="8">
         <v>0.60029999999999994</v>
       </c>
-      <c r="C5" s="10">
+      <c r="C5" s="8">
         <v>0.95799999999999996</v>
       </c>
-      <c r="D5" s="12">
+      <c r="D5" s="10">
         <v>4.5678000000000001</v>
       </c>
-      <c r="E5" s="11">
+      <c r="E5" s="9">
         <v>1.9723999999999999</v>
       </c>
-      <c r="F5" s="11">
+      <c r="F5" s="9">
         <v>0.307</v>
       </c>
-      <c r="G5" s="52" t="s">
+      <c r="G5" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="H5" s="53" t="s">
+      <c r="H5" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="I5" s="10">
+      <c r="I5" s="8">
         <v>2.3099999999999999E-2</v>
       </c>
-      <c r="J5" s="13">
+      <c r="J5" s="11">
         <v>6.7199999999999996E-2</v>
       </c>
-      <c r="K5" s="10">
+      <c r="K5" s="8">
         <v>0.01</v>
       </c>
-      <c r="L5" s="10">
+      <c r="L5" s="8">
         <v>-3.04E-2</v>
       </c>
-      <c r="M5" s="10">
+      <c r="M5" s="8">
         <v>1.9699999999999999E-2</v>
       </c>
-      <c r="N5" s="13">
+      <c r="N5" s="11">
         <v>-0.35770000000000002</v>
       </c>
-      <c r="O5" s="10">
+      <c r="O5" s="8">
         <v>-0.25750000000000001</v>
       </c>
-      <c r="P5" s="63">
+      <c r="P5" s="49">
         <v>-0.26019999999999999</v>
       </c>
-      <c r="Q5" s="13">
+      <c r="Q5" s="11">
         <v>-0.40239999999999998</v>
       </c>
-      <c r="R5" s="10">
+      <c r="R5" s="8">
         <v>-0.36170000000000002</v>
       </c>
-      <c r="S5" s="67">
+      <c r="S5" s="53">
         <v>-3.2551999999999999</v>
       </c>
-      <c r="T5" s="72" t="s">
+      <c r="T5" s="58" t="s">
         <v>53</v>
       </c>
-      <c r="U5" s="10"/>
-      <c r="V5" s="10"/>
-      <c r="W5" s="14"/>
-      <c r="X5" s="14"/>
       <c r="Y5" s="3" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="6" spans="1:25" s="43" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A6" s="62" t="s">
+    <row r="6" spans="1:25" s="33" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A6" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="10">
+      <c r="B6" s="8">
         <v>0.50560000000000005</v>
       </c>
-      <c r="C6" s="10">
+      <c r="C6" s="8">
         <v>0.50770000000000004</v>
       </c>
-      <c r="D6" s="12">
+      <c r="D6" s="10">
         <v>1.3792</v>
       </c>
-      <c r="E6" s="11">
+      <c r="E6" s="9">
         <v>3.8016000000000001</v>
       </c>
-      <c r="F6" s="11">
+      <c r="F6" s="9">
         <v>0.16300000000000001</v>
       </c>
-      <c r="G6" s="49">
+      <c r="G6" s="37">
         <v>0.16270000000000001</v>
       </c>
-      <c r="H6" s="10">
+      <c r="H6" s="8">
         <v>3.0999999999999999E-3</v>
       </c>
-      <c r="I6" s="10">
+      <c r="I6" s="8">
         <v>1.3599999999999999E-2</v>
       </c>
-      <c r="J6" s="13">
+      <c r="J6" s="11">
         <v>1.3599999999999999E-2</v>
       </c>
-      <c r="K6" s="10">
+      <c r="K6" s="8">
         <v>3.5000000000000001E-3</v>
       </c>
-      <c r="L6" s="10">
+      <c r="L6" s="8">
         <v>1.38E-2</v>
       </c>
-      <c r="M6" s="10">
+      <c r="M6" s="8">
         <v>8.6999999999999994E-3</v>
       </c>
-      <c r="N6" s="13">
+      <c r="N6" s="11">
         <v>-2.0999999999999999E-3</v>
       </c>
-      <c r="O6" s="82">
+      <c r="O6" s="64">
         <v>3.5000000000000001E-3</v>
       </c>
-      <c r="P6" s="83">
+      <c r="P6" s="65">
         <v>1.35E-2</v>
       </c>
-      <c r="Q6" s="13">
+      <c r="Q6" s="11">
         <v>6.3799999999999996E-2</v>
       </c>
-      <c r="R6" s="10">
+      <c r="R6" s="8">
         <v>-2E-3</v>
       </c>
-      <c r="S6" s="67">
+      <c r="S6" s="53">
         <v>-1.38E-2</v>
       </c>
-      <c r="T6" s="72" t="s">
+      <c r="T6" s="58" t="s">
         <v>52</v>
       </c>
-      <c r="U6" s="10"/>
-      <c r="V6" s="10"/>
-      <c r="W6" s="14"/>
-      <c r="X6" s="14"/>
-      <c r="Y6" s="81" t="s">
+      <c r="U6" s="8"/>
+      <c r="V6" s="8"/>
+      <c r="W6" s="12"/>
+      <c r="X6" s="12"/>
+      <c r="Y6" s="63" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:25" ht="17" x14ac:dyDescent="0.2">
-      <c r="A7" s="62" t="s">
+      <c r="A7" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="10">
+      <c r="B7" s="8">
         <v>0.51500000000000001</v>
       </c>
-      <c r="C7" s="10">
+      <c r="C7" s="8">
         <v>0.32250000000000001</v>
       </c>
-      <c r="D7" s="12">
+      <c r="D7" s="10">
         <v>-11.805300000000001</v>
       </c>
-      <c r="E7" s="11">
+      <c r="E7" s="9">
         <v>4.3503999999999996</v>
       </c>
-      <c r="F7" s="11">
+      <c r="F7" s="9">
         <v>0.12989999999999999</v>
       </c>
-      <c r="G7" s="49">
+      <c r="G7" s="37">
         <v>36.517400000000002</v>
       </c>
-      <c r="H7" s="10">
+      <c r="H7" s="8">
         <v>0.1106</v>
       </c>
-      <c r="I7" s="10">
+      <c r="I7" s="8">
         <v>5.7000000000000002E-2</v>
       </c>
-      <c r="J7" s="13">
+      <c r="J7" s="11">
         <v>0.2172</v>
       </c>
-      <c r="K7" s="10">
+      <c r="K7" s="8">
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="L7" s="10">
+      <c r="L7" s="8">
         <v>0.20979999999999999</v>
       </c>
-      <c r="M7" s="10">
+      <c r="M7" s="8">
         <v>6.6600000000000006E-2</v>
       </c>
-      <c r="N7" s="13">
+      <c r="N7" s="11">
         <v>0.1925</v>
       </c>
-      <c r="O7" s="10">
+      <c r="O7" s="8">
         <v>0.20760000000000001</v>
       </c>
-      <c r="P7" s="63">
+      <c r="P7" s="49">
         <v>0.2429</v>
       </c>
-      <c r="Q7" s="13">
+      <c r="Q7" s="11">
         <v>0.216</v>
       </c>
-      <c r="R7" s="10">
+      <c r="R7" s="8">
         <v>0.1653</v>
       </c>
-      <c r="S7" s="67">
+      <c r="S7" s="53">
         <v>2.1486999999999998</v>
       </c>
-      <c r="T7" s="72" t="s">
+      <c r="T7" s="58" t="s">
         <v>52</v>
       </c>
-      <c r="U7" s="10"/>
-      <c r="V7" s="10"/>
-      <c r="W7" s="14"/>
-      <c r="X7" s="14"/>
       <c r="Y7" s="3" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:25" ht="17" x14ac:dyDescent="0.2">
-      <c r="A8" s="62" t="s">
+      <c r="A8" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="10">
+      <c r="B8" s="8">
         <v>0.5131</v>
       </c>
-      <c r="C8" s="10">
+      <c r="C8" s="8">
         <v>0.38979999999999998</v>
       </c>
-      <c r="D8" s="12">
+      <c r="D8" s="10">
         <v>-8.4352999999999998</v>
       </c>
-      <c r="E8" s="11">
+      <c r="E8" s="9">
         <v>4.0765000000000002</v>
       </c>
-      <c r="F8" s="11">
+      <c r="F8" s="9">
         <v>0.14530000000000001</v>
       </c>
-      <c r="G8" s="49">
+      <c r="G8" s="37">
         <v>22.170300000000001</v>
       </c>
-      <c r="H8" s="10">
+      <c r="H8" s="8">
         <v>6.9400000000000003E-2</v>
       </c>
-      <c r="I8" s="10">
+      <c r="I8" s="8">
         <v>4.1700000000000001E-2</v>
       </c>
-      <c r="J8" s="13">
+      <c r="J8" s="11">
         <v>0.155</v>
       </c>
-      <c r="K8" s="10">
+      <c r="K8" s="8">
         <v>3.3300000000000003E-2</v>
       </c>
-      <c r="L8" s="10">
+      <c r="L8" s="8">
         <v>0.14910000000000001</v>
       </c>
-      <c r="M8" s="10">
+      <c r="M8" s="8">
         <v>4.3900000000000002E-2</v>
       </c>
-      <c r="N8" s="13">
+      <c r="N8" s="11">
         <v>0.1232</v>
       </c>
-      <c r="O8" s="10">
+      <c r="O8" s="8">
         <v>0.1363</v>
       </c>
-      <c r="P8" s="63">
+      <c r="P8" s="49">
         <v>0.16339999999999999</v>
       </c>
-      <c r="Q8" s="13">
+      <c r="Q8" s="11">
         <v>0.11020000000000001</v>
       </c>
-      <c r="R8" s="10">
+      <c r="R8" s="8">
         <v>0.1067</v>
       </c>
-      <c r="S8" s="67">
+      <c r="S8" s="53">
         <v>1.7071000000000001</v>
       </c>
-      <c r="T8" s="72" t="s">
+      <c r="T8" s="58" t="s">
         <v>52</v>
       </c>
-      <c r="U8" s="10"/>
-      <c r="V8" s="10"/>
-      <c r="W8" s="14"/>
-      <c r="X8" s="14"/>
       <c r="Y8" s="3" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:25" ht="17" x14ac:dyDescent="0.2">
-      <c r="A9" s="62" t="s">
+      <c r="A9" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="10">
+      <c r="B9" s="8">
         <v>0.52939999999999998</v>
       </c>
-      <c r="C9" s="10">
+      <c r="C9" s="8">
         <v>0.41670000000000001</v>
       </c>
-      <c r="D9" s="12">
+      <c r="D9" s="10">
         <v>-2.8304999999999998</v>
       </c>
-      <c r="E9" s="11">
+      <c r="E9" s="9">
         <v>3.4077000000000002</v>
       </c>
-      <c r="F9" s="11">
+      <c r="F9" s="9">
         <v>0.19350000000000001</v>
       </c>
-      <c r="G9" s="49">
+      <c r="G9" s="37">
         <v>23.663499999999999</v>
       </c>
-      <c r="H9" s="10">
+      <c r="H9" s="8">
         <v>8.7400000000000005E-2</v>
       </c>
-      <c r="I9" s="10">
+      <c r="I9" s="8">
         <v>5.74E-2</v>
       </c>
-      <c r="J9" s="13">
+      <c r="J9" s="11">
         <v>0.16919999999999999</v>
       </c>
-      <c r="K9" s="10">
+      <c r="K9" s="8">
         <v>4.7100000000000003E-2</v>
       </c>
-      <c r="L9" s="10">
+      <c r="L9" s="8">
         <v>0.15540000000000001</v>
       </c>
-      <c r="M9" s="10">
+      <c r="M9" s="8">
         <v>5.74E-2</v>
       </c>
-      <c r="N9" s="13">
+      <c r="N9" s="11">
         <v>0.11269999999999999</v>
       </c>
-      <c r="O9" s="10">
+      <c r="O9" s="8">
         <v>0.1421</v>
       </c>
-      <c r="P9" s="63">
+      <c r="P9" s="49">
         <v>0.1835</v>
       </c>
-      <c r="Q9" s="13">
+      <c r="Q9" s="11">
         <v>0.13880000000000001</v>
       </c>
-      <c r="R9" s="10">
+      <c r="R9" s="8">
         <v>0.10589999999999999</v>
       </c>
-      <c r="S9" s="67">
+      <c r="S9" s="53">
         <v>1.9068000000000001</v>
       </c>
-      <c r="T9" s="72" t="s">
+      <c r="T9" s="58" t="s">
         <v>52</v>
       </c>
-      <c r="U9" s="10"/>
-      <c r="V9" s="10"/>
-      <c r="W9" s="14"/>
-      <c r="X9" s="14"/>
       <c r="Y9" s="3" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:25" ht="17" x14ac:dyDescent="0.2">
-      <c r="A10" s="62" t="s">
+      <c r="A10" s="48" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="10">
+      <c r="B10" s="8">
         <v>0.41589999999999999</v>
       </c>
-      <c r="C10" s="10">
+      <c r="C10" s="8">
         <v>0.2107</v>
       </c>
-      <c r="D10" s="12">
+      <c r="D10" s="10">
         <v>3.4416000000000002</v>
       </c>
-      <c r="E10" s="11">
+      <c r="E10" s="9">
         <v>0.47299999999999998</v>
       </c>
-      <c r="F10" s="11">
+      <c r="F10" s="9">
         <v>1.9142999999999999</v>
       </c>
-      <c r="G10" s="49">
+      <c r="G10" s="37">
         <v>34.854599999999998</v>
       </c>
-      <c r="H10" s="10">
+      <c r="H10" s="8">
         <v>5.8999999999999999E-3</v>
       </c>
-      <c r="I10" s="10">
+      <c r="I10" s="8">
         <v>4.1300000000000003E-2</v>
       </c>
-      <c r="J10" s="13">
+      <c r="J10" s="11">
         <v>0.1835</v>
       </c>
-      <c r="K10" s="10">
+      <c r="K10" s="8">
         <v>3.2399999999999998E-2</v>
       </c>
-      <c r="L10" s="10">
+      <c r="L10" s="8">
         <v>-3.1899999999999998E-2</v>
       </c>
-      <c r="M10" s="10">
+      <c r="M10" s="8">
         <v>6.4600000000000005E-2</v>
       </c>
-      <c r="N10" s="13">
+      <c r="N10" s="11">
         <v>0.20530000000000001</v>
       </c>
-      <c r="O10" s="10">
+      <c r="O10" s="8">
         <v>0.1212</v>
       </c>
-      <c r="P10" s="63">
+      <c r="P10" s="49">
         <v>0.24959999999999999</v>
       </c>
-      <c r="Q10" s="13">
+      <c r="Q10" s="11">
         <v>0.23380000000000001</v>
       </c>
-      <c r="R10" s="10">
+      <c r="R10" s="8">
         <v>0.2369</v>
       </c>
-      <c r="S10" s="67">
+      <c r="S10" s="53">
         <v>2.1324000000000001</v>
       </c>
-      <c r="T10" s="73" t="s">
+      <c r="T10" s="59" t="s">
         <v>52</v>
       </c>
-      <c r="U10" s="10"/>
-      <c r="V10" s="10"/>
-      <c r="W10" s="14"/>
-      <c r="X10" s="14"/>
       <c r="Y10" s="3" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:25" ht="17" x14ac:dyDescent="0.2">
-      <c r="A11" s="62" t="s">
+      <c r="A11" s="48" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="10">
+      <c r="B11" s="8">
         <v>0.40429999999999999</v>
       </c>
-      <c r="C11" s="10">
+      <c r="C11" s="8">
         <v>0.28939999999999999</v>
       </c>
-      <c r="D11" s="12">
+      <c r="D11" s="10">
         <v>2.2014999999999998</v>
       </c>
-      <c r="E11" s="11">
+      <c r="E11" s="9">
         <v>1.17</v>
       </c>
-      <c r="F11" s="11">
+      <c r="F11" s="9">
         <v>0.65469999999999995</v>
       </c>
-      <c r="G11" s="49">
+      <c r="G11" s="37">
         <v>17.246200000000002</v>
       </c>
-      <c r="H11" s="10">
+      <c r="H11" s="8">
         <v>-2.9600000000000001E-2</v>
       </c>
-      <c r="I11" s="10">
+      <c r="I11" s="8">
         <v>2.1399999999999999E-2</v>
       </c>
-      <c r="J11" s="13">
+      <c r="J11" s="11">
         <v>5.4600000000000003E-2</v>
       </c>
-      <c r="K11" s="10">
+      <c r="K11" s="8">
         <v>1.35E-2</v>
       </c>
-      <c r="L11" s="10">
+      <c r="L11" s="8">
         <v>-8.3299999999999999E-2</v>
       </c>
-      <c r="M11" s="10">
+      <c r="M11" s="8">
         <v>5.4199999999999998E-2</v>
       </c>
-      <c r="N11" s="13">
+      <c r="N11" s="11">
         <v>0.115</v>
       </c>
-      <c r="O11" s="10">
+      <c r="O11" s="8">
         <v>1.9300000000000001E-2</v>
       </c>
-      <c r="P11" s="63">
+      <c r="P11" s="49">
         <v>9.8699999999999996E-2</v>
       </c>
-      <c r="Q11" s="13">
+      <c r="Q11" s="11">
         <v>0.1273</v>
       </c>
-      <c r="R11" s="10">
+      <c r="R11" s="8">
         <v>0.11840000000000001</v>
       </c>
-      <c r="S11" s="67">
+      <c r="S11" s="53">
         <v>4.2638999999999996</v>
       </c>
-      <c r="T11" s="73" t="s">
+      <c r="T11" s="59" t="s">
         <v>52</v>
       </c>
-      <c r="U11" s="10"/>
-      <c r="V11" s="10"/>
-      <c r="W11" s="14"/>
-      <c r="X11" s="14"/>
       <c r="Y11" s="3" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="12" spans="1:25" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A12" s="64" t="s">
+      <c r="A12" s="50" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="15">
+      <c r="B12" s="13">
         <v>0.43</v>
       </c>
-      <c r="C12" s="15">
+      <c r="C12" s="13">
         <v>0.1583</v>
       </c>
-      <c r="D12" s="17">
+      <c r="D12" s="15">
         <v>4.883</v>
       </c>
-      <c r="E12" s="16">
+      <c r="E12" s="14">
         <v>0.86960000000000004</v>
       </c>
-      <c r="F12" s="16">
+      <c r="F12" s="14">
         <v>0.94989999999999997</v>
       </c>
-      <c r="G12" s="50">
+      <c r="G12" s="38">
         <v>47.914400000000001</v>
       </c>
-      <c r="H12" s="15">
+      <c r="H12" s="13">
         <v>4.24E-2</v>
       </c>
-      <c r="I12" s="15">
+      <c r="I12" s="13">
         <v>4.7300000000000002E-2</v>
       </c>
-      <c r="J12" s="18">
+      <c r="J12" s="16">
         <v>0.1502</v>
       </c>
-      <c r="K12" s="15">
+      <c r="K12" s="13">
         <v>2.3800000000000002E-2</v>
       </c>
-      <c r="L12" s="15">
+      <c r="L12" s="13">
         <v>6.4999999999999997E-3</v>
       </c>
-      <c r="M12" s="15">
+      <c r="M12" s="13">
         <v>5.1299999999999998E-2</v>
       </c>
-      <c r="N12" s="18">
+      <c r="N12" s="16">
         <v>0.2717</v>
       </c>
-      <c r="O12" s="15">
+      <c r="O12" s="13">
         <v>0.20169999999999999</v>
       </c>
-      <c r="P12" s="65">
+      <c r="P12" s="51">
         <v>0.28079999999999999</v>
       </c>
-      <c r="Q12" s="18">
+      <c r="Q12" s="16">
         <v>0.2702</v>
       </c>
-      <c r="R12" s="15">
+      <c r="R12" s="13">
         <v>0.26300000000000001</v>
       </c>
-      <c r="S12" s="68">
+      <c r="S12" s="54">
         <v>1.8407</v>
       </c>
-      <c r="T12" s="74" t="s">
+      <c r="T12" s="60" t="s">
         <v>52</v>
       </c>
-      <c r="U12" s="15"/>
-      <c r="V12" s="15"/>
-      <c r="W12" s="19"/>
-      <c r="X12" s="19"/>
+      <c r="U12" s="13"/>
+      <c r="V12" s="13"/>
+      <c r="W12" s="17"/>
+      <c r="X12" s="17"/>
       <c r="Y12" s="4" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="14" spans="1:25" s="78" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A14" s="20"/>
-      <c r="B14" s="21"/>
-      <c r="C14" s="22"/>
-      <c r="D14" s="77" t="s">
+    <row r="14" spans="1:25" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A14" s="18"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="36" t="s">
         <v>49</v>
       </c>
-      <c r="E14" s="22"/>
-      <c r="F14" s="44"/>
-      <c r="G14" s="23" t="str">
+      <c r="E14" s="13"/>
+      <c r="F14" s="34"/>
+      <c r="G14" s="19" t="str">
         <f>G1</f>
         <v xml:space="preserve"> Decl</v>
       </c>
-      <c r="H14" s="27" t="str">
+      <c r="H14" s="23" t="str">
         <f>H1</f>
         <v xml:space="preserve"> LO</v>
       </c>
-      <c r="I14" s="25" t="str">
+      <c r="I14" s="21" t="str">
         <f>I1</f>
         <v xml:space="preserve"> MM</v>
       </c>
-      <c r="J14" s="23" t="str">
+      <c r="J14" s="19" t="str">
         <f>J1</f>
         <v xml:space="preserve"> BS_50</v>
       </c>
-      <c r="K14" s="24" t="str">
+      <c r="K14" s="20" t="str">
         <f t="shared" ref="K14:P14" si="0">K1</f>
         <v xml:space="preserve"> BV_50</v>
       </c>
-      <c r="L14" s="25" t="str">
+      <c r="L14" s="21" t="str">
         <f>L1</f>
         <v>β</v>
       </c>
-      <c r="M14" s="24" t="str">
+      <c r="M14" s="20" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> GS</v>
       </c>
-      <c r="N14" s="26" t="str">
+      <c r="N14" s="22" t="str">
         <f>N1</f>
         <v xml:space="preserve"> PR</v>
       </c>
-      <c r="O14" s="25" t="str">
+      <c r="O14" s="21" t="str">
         <f>O1</f>
         <v xml:space="preserve"> EG</v>
       </c>
-      <c r="P14" s="25" t="str">
+      <c r="P14" s="21" t="str">
         <f t="shared" si="0"/>
         <v>𝛾</v>
       </c>
-      <c r="Q14" s="28"/>
-      <c r="R14" s="22"/>
-      <c r="S14" s="22"/>
-      <c r="T14" s="69"/>
-      <c r="U14" s="22"/>
-      <c r="V14" s="22"/>
-      <c r="W14" s="29" t="s">
+      <c r="Q14" s="16"/>
+      <c r="R14" s="13"/>
+      <c r="S14" s="13"/>
+      <c r="T14" s="55"/>
+      <c r="U14" s="13"/>
+      <c r="V14" s="13"/>
+      <c r="W14" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="X14" s="29" t="s">
+      <c r="X14" s="24" t="s">
         <v>40</v>
       </c>
       <c r="Y14" s="5" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:25" s="54" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="79"/>
-      <c r="B15" s="31"/>
-      <c r="C15" s="32"/>
-      <c r="D15" s="47" t="s">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A15" s="25"/>
+      <c r="D15" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="E15" s="32"/>
-      <c r="F15" s="34"/>
-      <c r="G15" s="36" t="str">
+      <c r="G15" s="27" t="str">
         <f t="shared" ref="G15:I25" si="1">IF(OR(AND($R2 &gt; 0, G2 &lt; 0), AND($R2 &lt; 0, G2 &gt; 0)), "*", "")</f>
         <v/>
       </c>
-      <c r="H15" s="37" t="str">
+      <c r="H15" s="28" t="str">
         <f t="shared" si="1"/>
         <v>*</v>
       </c>
-      <c r="I15" s="37" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="J15" s="36" t="str">
+      <c r="I15" s="28" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="J15" s="27" t="str">
         <f t="shared" ref="J15:P25" si="2">IF(OR(AND($R2 &gt; 0, J2 &lt; 0), AND($R2 &lt; 0, J2 &gt; 0)), "X", "")</f>
         <v/>
       </c>
-      <c r="K15" s="37" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="L15" s="37" t="str">
+      <c r="K15" s="28" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="L15" s="28" t="str">
         <f t="shared" si="2"/>
         <v>X</v>
       </c>
-      <c r="M15" s="37" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="N15" s="36" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="O15" s="37" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="P15" s="37" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="Q15" s="33"/>
-      <c r="R15" s="32"/>
-      <c r="S15" s="32"/>
-      <c r="T15" s="70"/>
-      <c r="U15" s="32"/>
-      <c r="V15" s="32"/>
-      <c r="W15" s="31" t="s">
+      <c r="M15" s="28" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="N15" s="27" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="O15" s="28" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="P15" s="28" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="W15" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="X15" s="31" t="s">
+      <c r="X15" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="Y15" s="6"/>
-    </row>
-    <row r="16" spans="1:25" s="54" customFormat="1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A16" s="79"/>
-      <c r="B16" s="31"/>
-      <c r="C16" s="32"/>
-      <c r="D16" s="47" t="s">
+    </row>
+    <row r="16" spans="1:25" ht="34" x14ac:dyDescent="0.2">
+      <c r="A16" s="25"/>
+      <c r="D16" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="E16" s="32"/>
-      <c r="F16" s="34"/>
-      <c r="G16" s="51" t="str">
+      <c r="G16" s="27" t="str">
         <f t="shared" si="1"/>
         <v>*</v>
       </c>
-      <c r="H16" s="37" t="str">
+      <c r="H16" s="28" t="str">
         <f t="shared" si="1"/>
         <v>*</v>
       </c>
-      <c r="I16" s="37" t="str">
+      <c r="I16" s="28" t="str">
         <f t="shared" si="1"/>
         <v>*</v>
       </c>
-      <c r="J16" s="36" t="str">
+      <c r="J16" s="27" t="str">
         <f t="shared" si="2"/>
         <v>X</v>
       </c>
-      <c r="K16" s="37" t="str">
+      <c r="K16" s="28" t="str">
         <f t="shared" si="2"/>
         <v>X</v>
       </c>
-      <c r="L16" s="37" t="str">
+      <c r="L16" s="28" t="str">
         <f t="shared" si="2"/>
         <v>X</v>
       </c>
-      <c r="M16" s="37" t="str">
+      <c r="M16" s="28" t="str">
         <f t="shared" si="2"/>
         <v>X</v>
       </c>
-      <c r="N16" s="36" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="O16" s="37" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="P16" s="45" t="str">
+      <c r="N16" s="27" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="O16" s="28" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="P16" s="35" t="str">
         <f t="shared" si="2"/>
         <v>X</v>
       </c>
-      <c r="Q16" s="33"/>
-      <c r="R16" s="32"/>
-      <c r="S16" s="32"/>
-      <c r="T16" s="70"/>
-      <c r="U16" s="32"/>
-      <c r="V16" s="32"/>
-      <c r="W16" s="31" t="s">
+      <c r="W16" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="X16" s="31" t="s">
+      <c r="X16" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="Y16" s="6" t="s">
+      <c r="Y16" s="3" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="17" spans="1:25" s="54" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="79"/>
-      <c r="B17" s="31"/>
-      <c r="C17" s="32"/>
-      <c r="D17" s="47" t="s">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A17" s="25"/>
+      <c r="D17" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="E17" s="32"/>
-      <c r="F17" s="34"/>
-      <c r="G17" s="36" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="H17" s="37" t="str">
+      <c r="G17" s="27" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H17" s="28" t="str">
         <f t="shared" si="1"/>
         <v>*</v>
       </c>
-      <c r="I17" s="37" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="J17" s="36" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="K17" s="37" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="L17" s="37" t="str">
+      <c r="I17" s="28" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="J17" s="27" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="K17" s="28" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="L17" s="28" t="str">
         <f t="shared" si="2"/>
         <v>X</v>
       </c>
-      <c r="M17" s="37" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="N17" s="36" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="O17" s="37" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="P17" s="37" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="Q17" s="33"/>
-      <c r="R17" s="32"/>
-      <c r="S17" s="32"/>
-      <c r="T17" s="70"/>
-      <c r="U17" s="32"/>
-      <c r="V17" s="32"/>
-      <c r="W17" s="31" t="s">
+      <c r="M17" s="28" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="N17" s="27" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="O17" s="28" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="P17" s="28" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="W17" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="X17" s="31" t="s">
+      <c r="X17" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="Y17" s="6"/>
-    </row>
-    <row r="18" spans="1:25" s="54" customFormat="1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A18" s="79"/>
-      <c r="B18" s="31"/>
-      <c r="C18" s="32"/>
-      <c r="D18" s="47" t="s">
+    </row>
+    <row r="18" spans="1:25" ht="34" x14ac:dyDescent="0.2">
+      <c r="A18" s="25"/>
+      <c r="D18" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="E18" s="32"/>
-      <c r="F18" s="34"/>
-      <c r="G18" s="51" t="str">
+      <c r="G18" s="27" t="str">
         <f t="shared" si="1"/>
         <v>*</v>
       </c>
-      <c r="H18" s="37" t="str">
+      <c r="H18" s="28" t="str">
         <f t="shared" si="1"/>
         <v>*</v>
       </c>
-      <c r="I18" s="37" t="str">
+      <c r="I18" s="28" t="str">
         <f t="shared" si="1"/>
         <v>*</v>
       </c>
-      <c r="J18" s="36" t="str">
+      <c r="J18" s="27" t="str">
         <f t="shared" si="2"/>
         <v>X</v>
       </c>
-      <c r="K18" s="37" t="str">
+      <c r="K18" s="28" t="str">
         <f t="shared" si="2"/>
         <v>X</v>
       </c>
-      <c r="L18" s="37" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="M18" s="37" t="str">
+      <c r="L18" s="28" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="M18" s="28" t="str">
         <f t="shared" si="2"/>
         <v>X</v>
       </c>
-      <c r="N18" s="36" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="O18" s="37" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="P18" s="37" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="Q18" s="33"/>
-      <c r="R18" s="32"/>
-      <c r="S18" s="32"/>
-      <c r="T18" s="70"/>
-      <c r="U18" s="32"/>
-      <c r="V18" s="32"/>
-      <c r="W18" s="31" t="s">
+      <c r="N18" s="27" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="O18" s="28" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="P18" s="28" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="W18" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="X18" s="31" t="s">
+      <c r="X18" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="Y18" s="6" t="s">
+      <c r="Y18" s="3" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="19" spans="1:25" s="54" customFormat="1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A19" s="79"/>
-      <c r="B19" s="31"/>
-      <c r="C19" s="32"/>
-      <c r="D19" s="47" t="s">
+    <row r="19" spans="1:25" ht="34" x14ac:dyDescent="0.2">
+      <c r="A19" s="25"/>
+      <c r="D19" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="E19" s="32"/>
-      <c r="F19" s="34"/>
-      <c r="G19" s="51" t="str">
+      <c r="G19" s="27" t="str">
         <f t="shared" si="1"/>
         <v>*</v>
       </c>
-      <c r="H19" s="37" t="str">
+      <c r="H19" s="28" t="str">
         <f t="shared" si="1"/>
         <v>*</v>
       </c>
-      <c r="I19" s="37" t="str">
+      <c r="I19" s="28" t="str">
         <f t="shared" si="1"/>
         <v>*</v>
       </c>
-      <c r="J19" s="36" t="str">
+      <c r="J19" s="27" t="str">
         <f t="shared" si="2"/>
         <v>X</v>
       </c>
-      <c r="K19" s="37" t="str">
+      <c r="K19" s="28" t="str">
         <f t="shared" si="2"/>
         <v>X</v>
       </c>
-      <c r="L19" s="37" t="str">
+      <c r="L19" s="28" t="str">
         <f t="shared" si="2"/>
         <v>X</v>
       </c>
-      <c r="M19" s="37" t="str">
+      <c r="M19" s="28" t="str">
         <f t="shared" si="2"/>
         <v>X</v>
       </c>
-      <c r="N19" s="51" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="O19" s="45" t="str">
+      <c r="N19" s="27" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="O19" s="35" t="str">
         <f t="shared" si="2"/>
         <v>X</v>
       </c>
-      <c r="P19" s="45" t="str">
+      <c r="P19" s="35" t="str">
         <f t="shared" si="2"/>
         <v>X</v>
       </c>
-      <c r="Q19" s="33"/>
-      <c r="R19" s="32"/>
-      <c r="S19" s="32"/>
-      <c r="T19" s="70"/>
-      <c r="U19" s="32"/>
-      <c r="V19" s="32"/>
-      <c r="W19" s="31" t="s">
+      <c r="W19" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="X19" s="31" t="s">
+      <c r="X19" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="Y19" s="6" t="s">
+      <c r="Y19" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="20" spans="1:25" s="54" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="79"/>
-      <c r="B20" s="31"/>
-      <c r="C20" s="32"/>
-      <c r="D20" s="47" t="s">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A20" s="25"/>
+      <c r="D20" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="E20" s="32"/>
-      <c r="F20" s="34"/>
-      <c r="G20" s="51" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="H20" s="37" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="I20" s="37" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="J20" s="36" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="K20" s="37" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="L20" s="37" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="M20" s="37" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="N20" s="36" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="O20" s="37" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="P20" s="37" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="Q20" s="33"/>
-      <c r="R20" s="32"/>
-      <c r="S20" s="32"/>
-      <c r="T20" s="70"/>
-      <c r="U20" s="32"/>
-      <c r="V20" s="32"/>
-      <c r="W20" s="31" t="s">
+      <c r="G20" s="27" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H20" s="28" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="I20" s="28" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="J20" s="27" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="K20" s="28" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="L20" s="28" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="M20" s="28" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="N20" s="27" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="O20" s="28" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="P20" s="28" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="W20" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="X20" s="31" t="s">
+      <c r="X20" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="Y20" s="6"/>
-    </row>
-    <row r="21" spans="1:25" s="54" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="79"/>
-      <c r="B21" s="31"/>
-      <c r="C21" s="32"/>
-      <c r="D21" s="47" t="s">
+    </row>
+    <row r="21" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A21" s="25"/>
+      <c r="D21" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="E21" s="32"/>
-      <c r="F21" s="34"/>
-      <c r="G21" s="36" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="H21" s="37" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="I21" s="37" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="J21" s="36" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="K21" s="37" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="L21" s="37" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="M21" s="37" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="N21" s="36" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="O21" s="37" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="P21" s="37" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="Q21" s="33"/>
-      <c r="R21" s="32"/>
-      <c r="S21" s="32"/>
-      <c r="T21" s="70"/>
-      <c r="U21" s="32"/>
-      <c r="V21" s="32"/>
-      <c r="W21" s="31" t="s">
+      <c r="G21" s="27" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H21" s="28" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="I21" s="28" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="J21" s="27" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="K21" s="28" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="L21" s="28" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="M21" s="28" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="N21" s="27" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="O21" s="28" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="P21" s="28" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="W21" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="X21" s="31" t="s">
+      <c r="X21" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="Y21" s="6"/>
-    </row>
-    <row r="22" spans="1:25" s="54" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="79"/>
-      <c r="B22" s="31"/>
-      <c r="C22" s="32"/>
-      <c r="D22" s="47" t="s">
+    </row>
+    <row r="22" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A22" s="25"/>
+      <c r="D22" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="E22" s="32"/>
-      <c r="F22" s="34"/>
-      <c r="G22" s="36" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="H22" s="37" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="I22" s="37" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="J22" s="36" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="K22" s="37" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="L22" s="37" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="M22" s="37" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="N22" s="36" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="O22" s="37" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="P22" s="37" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="Q22" s="33"/>
-      <c r="R22" s="32"/>
-      <c r="S22" s="32"/>
-      <c r="T22" s="70"/>
-      <c r="U22" s="32"/>
-      <c r="V22" s="32"/>
-      <c r="W22" s="31" t="s">
+      <c r="G22" s="27" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H22" s="28" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="I22" s="28" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="J22" s="27" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="K22" s="28" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="L22" s="28" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="M22" s="28" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="N22" s="27" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="O22" s="28" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="P22" s="28" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="W22" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="X22" s="31" t="s">
+      <c r="X22" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="Y22" s="6"/>
-    </row>
-    <row r="23" spans="1:25" s="54" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="79"/>
-      <c r="B23" s="31"/>
-      <c r="C23" s="32"/>
-      <c r="D23" s="47" t="s">
+    </row>
+    <row r="23" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A23" s="25"/>
+      <c r="D23" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="E23" s="32"/>
-      <c r="F23" s="34"/>
-      <c r="G23" s="36" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="H23" s="37" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="I23" s="37" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="J23" s="36" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="K23" s="37" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="L23" s="37" t="str">
+      <c r="G23" s="27" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H23" s="28" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="I23" s="28" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="J23" s="27" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="K23" s="28" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="L23" s="28" t="str">
         <f t="shared" si="2"/>
         <v>X</v>
       </c>
-      <c r="M23" s="37" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="N23" s="36" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="O23" s="37" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="P23" s="37" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="Q23" s="33"/>
-      <c r="R23" s="32"/>
-      <c r="S23" s="32"/>
-      <c r="T23" s="70"/>
-      <c r="U23" s="32"/>
-      <c r="V23" s="32"/>
-      <c r="W23" s="31" t="s">
+      <c r="M23" s="28" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="N23" s="27" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="O23" s="28" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="P23" s="28" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="W23" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="X23" s="31" t="s">
+      <c r="X23" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="Y23" s="6"/>
-    </row>
-    <row r="24" spans="1:25" s="54" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="79"/>
-      <c r="B24" s="31"/>
-      <c r="C24" s="32"/>
-      <c r="D24" s="47" t="s">
+    </row>
+    <row r="24" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A24" s="25"/>
+      <c r="D24" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="E24" s="32"/>
-      <c r="F24" s="34"/>
-      <c r="G24" s="36" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="H24" s="37" t="str">
+      <c r="G24" s="27" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H24" s="28" t="str">
         <f t="shared" si="1"/>
         <v>*</v>
       </c>
-      <c r="I24" s="37" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="J24" s="36" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="K24" s="37" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="L24" s="37" t="str">
+      <c r="I24" s="28" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="J24" s="27" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="K24" s="28" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="L24" s="28" t="str">
         <f t="shared" si="2"/>
         <v>X</v>
       </c>
-      <c r="M24" s="37" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="N24" s="36" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="O24" s="37" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="P24" s="37" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="Q24" s="33"/>
-      <c r="R24" s="32"/>
-      <c r="S24" s="32"/>
-      <c r="T24" s="70"/>
-      <c r="U24" s="32"/>
-      <c r="V24" s="32"/>
-      <c r="W24" s="31" t="s">
+      <c r="M24" s="28" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="N24" s="27" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="O24" s="28" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="P24" s="28" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="W24" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="X24" s="31" t="s">
+      <c r="X24" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="Y24" s="6"/>
-    </row>
-    <row r="25" spans="1:25" s="78" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="80"/>
-      <c r="B25" s="21"/>
-      <c r="C25" s="22"/>
-      <c r="D25" s="48" t="s">
+    </row>
+    <row r="25" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="29"/>
+      <c r="B25" s="17"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="E25" s="22"/>
-      <c r="G25" s="40" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="H25" s="41" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="I25" s="41" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="J25" s="40" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="K25" s="41" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="L25" s="41" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="M25" s="41" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="N25" s="40" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="O25" s="41" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="P25" s="41" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="Q25" s="28"/>
-      <c r="R25" s="22"/>
-      <c r="S25" s="22"/>
-      <c r="T25" s="69"/>
-      <c r="U25" s="22"/>
-      <c r="V25" s="22"/>
-      <c r="W25" s="21" t="s">
+      <c r="E25" s="13"/>
+      <c r="G25" s="31" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H25" s="32" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="I25" s="32" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="J25" s="31" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="K25" s="32" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="L25" s="32" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="M25" s="32" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="N25" s="31" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="O25" s="32" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="P25" s="32" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="Q25" s="16"/>
+      <c r="R25" s="13"/>
+      <c r="S25" s="13"/>
+      <c r="T25" s="55"/>
+      <c r="U25" s="13"/>
+      <c r="V25" s="13"/>
+      <c r="W25" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="X25" s="21" t="s">
+      <c r="X25" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="Y25" s="7"/>
+      <c r="Y25" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -2767,1642 +2568,1629 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.6640625" style="31" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.1640625" style="31" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.1640625" style="32" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.33203125" style="33" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="3.6640625" style="32" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5" style="34" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="5.33203125" style="42" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.1640625" style="34" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.83203125" style="32" customWidth="1"/>
-    <col min="10" max="10" width="6.83203125" style="42" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7" style="35" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.1640625" style="32" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.83203125" style="35" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6.83203125" style="33" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="6.83203125" style="32" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="6.83203125" style="33" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="6.83203125" style="32" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="4.83203125" style="32" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="3.83203125" style="70" customWidth="1"/>
-    <col min="22" max="22" width="62.83203125" style="6" customWidth="1"/>
+    <col min="1" max="1" width="4.6640625" style="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.1640625" style="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.1640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.33203125" style="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="3.6640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5" style="26" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="5.33203125" style="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.1640625" style="26" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.83203125" style="8" customWidth="1"/>
+    <col min="10" max="10" width="6.83203125" style="10" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7" style="9" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.1640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.83203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.83203125" style="11" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="6.83203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="6.83203125" style="11" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="6.83203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="4.83203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="3.83203125" style="56" customWidth="1"/>
+    <col min="22" max="22" width="62.83203125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="41" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="56" t="s">
+      <c r="B1" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="56" t="s">
+      <c r="C1" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="57" t="s">
+      <c r="D1" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="58" t="s">
+      <c r="E1" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="58" t="s">
+      <c r="F1" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="59" t="s">
+      <c r="G1" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="56" t="s">
+      <c r="H1" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="56" t="s">
+      <c r="I1" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="J1" s="60" t="s">
+      <c r="J1" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="56" t="s">
+      <c r="K1" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="56" t="s">
+      <c r="L1" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="M1" s="56" t="s">
+      <c r="M1" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="N1" s="60" t="s">
+      <c r="N1" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="O1" s="56" t="s">
+      <c r="O1" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="P1" s="61" t="s">
+      <c r="P1" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="Q1" s="60" t="s">
+      <c r="Q1" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="R1" s="56" t="s">
+      <c r="R1" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="S1" s="66" t="s">
+      <c r="S1" s="52" t="s">
         <v>48</v>
       </c>
-      <c r="T1" s="71" t="s">
+      <c r="T1" s="57" t="s">
         <v>51</v>
       </c>
-      <c r="U1" s="84"/>
+      <c r="U1" s="66"/>
       <c r="V1" s="5" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:22" ht="17" x14ac:dyDescent="0.2">
-      <c r="A2" s="62" t="s">
+      <c r="A2" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="10">
+      <c r="B2" s="8">
         <f>'Table 1a'!B2</f>
         <v>0.59209999999999996</v>
       </c>
-      <c r="C2" s="10">
+      <c r="C2" s="8">
         <f>'Table 1a'!C2</f>
         <v>0.72929999999999995</v>
       </c>
-      <c r="D2" s="88">
+      <c r="D2" s="67">
         <f>'Table 1a'!D2</f>
         <v>2.4899</v>
       </c>
-      <c r="E2" s="11">
+      <c r="E2" s="9">
         <f>'Table 1a'!E2</f>
         <v>1.9390000000000001</v>
       </c>
-      <c r="F2" s="11">
+      <c r="F2" s="9">
         <f>'Table 1a'!F2</f>
         <v>0.31569999999999998</v>
       </c>
-      <c r="G2" s="49">
+      <c r="G2" s="37">
         <f>'Table 1a'!G2</f>
         <v>-3.0045000000000002</v>
       </c>
-      <c r="H2" s="10">
+      <c r="H2" s="8">
         <f>'Table 1a'!H2</f>
         <v>9.2299999999999993E-2</v>
       </c>
-      <c r="I2" s="10">
+      <c r="I2" s="8">
         <f>'Table 1a'!I2</f>
         <v>-9.7000000000000003E-3</v>
       </c>
-      <c r="J2" s="13">
+      <c r="J2" s="11">
         <f>'Table 1a'!J2</f>
         <v>-1.7899999999999999E-2</v>
       </c>
-      <c r="K2" s="10">
+      <c r="K2" s="8">
         <f>'Table 1a'!K2</f>
         <v>-6.1000000000000004E-3</v>
       </c>
-      <c r="L2" s="10">
+      <c r="L2" s="8">
         <f>'Table 1a'!L2</f>
         <v>3.2899999999999999E-2</v>
       </c>
-      <c r="M2" s="10">
+      <c r="M2" s="8">
         <f>'Table 1a'!M2</f>
         <v>-1.7899999999999999E-2</v>
       </c>
-      <c r="N2" s="13">
+      <c r="N2" s="11">
         <f>'Table 1a'!N2</f>
         <v>-0.13719999999999999</v>
       </c>
-      <c r="O2" s="10">
+      <c r="O2" s="8">
         <f>'Table 1a'!O2</f>
         <v>-4.5100000000000001E-2</v>
       </c>
-      <c r="P2" s="63">
+      <c r="P2" s="49">
         <f>'Table 1a'!P2</f>
         <v>-5.0700000000000002E-2</v>
       </c>
-      <c r="Q2" s="13">
+      <c r="Q2" s="11">
         <f>'Table 1a'!Q2</f>
         <v>-0.1444</v>
       </c>
-      <c r="R2" s="10">
+      <c r="R2" s="8">
         <f>'Table 1a'!R2</f>
         <v>-0.14099999999999999</v>
       </c>
-      <c r="S2" s="67">
+      <c r="S2" s="53">
         <f>'Table 1a'!S2</f>
         <v>-7.4730999999999996</v>
       </c>
-      <c r="T2" s="73" t="str">
+      <c r="T2" s="59" t="str">
         <f>'Table 1a'!T2</f>
         <v>–</v>
       </c>
-      <c r="U2" s="85"/>
       <c r="V2" s="3" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="3" spans="1:22" s="54" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A3" s="62" t="s">
+    <row r="3" spans="1:22" ht="17" x14ac:dyDescent="0.2">
+      <c r="A3" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="10">
+      <c r="B3" s="8">
         <f>'Table 1a'!B3</f>
         <v>0.60009999999999997</v>
       </c>
-      <c r="C3" s="10">
+      <c r="C3" s="8">
         <f>'Table 1a'!C3</f>
         <v>0.74650000000000005</v>
       </c>
-      <c r="D3" s="88">
+      <c r="D3" s="67">
         <f>'Table 1a'!D3</f>
         <v>2.4630000000000001</v>
       </c>
-      <c r="E3" s="11">
+      <c r="E3" s="9">
         <f>'Table 1a'!E3</f>
         <v>3.1497000000000002</v>
       </c>
-      <c r="F3" s="11">
+      <c r="F3" s="9">
         <f>'Table 1a'!F3</f>
         <v>0.11749999999999999</v>
       </c>
-      <c r="G3" s="49">
+      <c r="G3" s="37">
         <f>'Table 1a'!G3</f>
         <v>5.6847000000000003</v>
       </c>
-      <c r="H3" s="10">
+      <c r="H3" s="8">
         <f>'Table 1a'!H3</f>
         <v>0.1166</v>
       </c>
-      <c r="I3" s="10">
+      <c r="I3" s="8">
         <f>'Table 1a'!I3</f>
         <v>2.1700000000000001E-2</v>
       </c>
-      <c r="J3" s="13">
+      <c r="J3" s="11">
         <f>'Table 1a'!J3</f>
         <v>6.5299999999999997E-2</v>
       </c>
-      <c r="K3" s="10">
+      <c r="K3" s="8">
         <f>'Table 1a'!K3</f>
         <v>1.77E-2</v>
       </c>
-      <c r="L3" s="10">
+      <c r="L3" s="8">
         <f>'Table 1a'!L3</f>
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="M3" s="10">
+      <c r="M3" s="8">
         <f>'Table 1a'!M3</f>
         <v>2.12E-2</v>
       </c>
-      <c r="N3" s="13">
+      <c r="N3" s="11">
         <f>'Table 1a'!N3</f>
         <v>-0.1464</v>
       </c>
-      <c r="O3" s="10">
+      <c r="O3" s="82">
         <f>'Table 1a'!O3</f>
         <v>-4.6300000000000001E-2</v>
       </c>
-      <c r="P3" s="103">
+      <c r="P3" s="83">
         <f>'Table 1a'!P3</f>
         <v>6.8699999999999997E-2</v>
       </c>
-      <c r="Q3" s="13">
+      <c r="Q3" s="11">
         <f>'Table 1a'!Q3</f>
         <v>-0.13539999999999999</v>
       </c>
-      <c r="R3" s="10">
+      <c r="R3" s="8">
         <f>'Table 1a'!R3</f>
         <v>-0.15989999999999999</v>
       </c>
-      <c r="S3" s="67">
+      <c r="S3" s="53">
         <f>'Table 1a'!S3</f>
         <v>-2.8780999999999999</v>
       </c>
-      <c r="T3" s="73" t="str">
+      <c r="T3" s="59" t="str">
         <f>'Table 1a'!T3</f>
         <v>–</v>
       </c>
-      <c r="U3" s="85"/>
       <c r="V3" s="3" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:22" s="54" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A4" s="62" t="s">
+    <row r="4" spans="1:22" ht="17" x14ac:dyDescent="0.2">
+      <c r="A4" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="10">
+      <c r="B4" s="8">
         <f>'Table 1a'!B4</f>
         <v>0.59340000000000004</v>
       </c>
-      <c r="C4" s="10">
+      <c r="C4" s="8">
         <f>'Table 1a'!C4</f>
         <v>0.84960000000000002</v>
       </c>
-      <c r="D4" s="88">
+      <c r="D4" s="67">
         <f>'Table 1a'!D4</f>
         <v>3.7441</v>
       </c>
-      <c r="E4" s="11">
+      <c r="E4" s="9">
         <f>'Table 1a'!E4</f>
         <v>1.0767</v>
       </c>
-      <c r="F4" s="11">
+      <c r="F4" s="9">
         <f>'Table 1a'!F4</f>
         <v>0.72870000000000001</v>
       </c>
-      <c r="G4" s="49">
+      <c r="G4" s="37">
         <f>'Table 1a'!G4</f>
         <v>-33.044199999999996</v>
       </c>
-      <c r="H4" s="10">
+      <c r="H4" s="8">
         <f>'Table 1a'!H4</f>
         <v>4.0599999999999997E-2</v>
       </c>
-      <c r="I4" s="10">
+      <c r="I4" s="8">
         <f>'Table 1a'!I4</f>
         <v>-1.09E-2</v>
       </c>
-      <c r="J4" s="13">
+      <c r="J4" s="11">
         <f>'Table 1a'!J4</f>
         <v>-5.45E-2</v>
       </c>
-      <c r="K4" s="10">
+      <c r="K4" s="8">
         <f>'Table 1a'!K4</f>
         <v>-1.01E-2</v>
       </c>
-      <c r="L4" s="10">
+      <c r="L4" s="8">
         <f>'Table 1a'!L4</f>
         <v>1.37E-2</v>
       </c>
-      <c r="M4" s="10">
+      <c r="M4" s="8">
         <f>'Table 1a'!M4</f>
         <v>-2.6700000000000002E-2</v>
       </c>
-      <c r="N4" s="13">
+      <c r="N4" s="11">
         <f>'Table 1a'!N4</f>
         <v>-0.25619999999999998</v>
       </c>
-      <c r="O4" s="10">
+      <c r="O4" s="82">
         <f>'Table 1a'!O4</f>
         <v>-0.1628</v>
       </c>
-      <c r="P4" s="63">
+      <c r="P4" s="83">
         <f>'Table 1a'!P4</f>
         <v>-0.249</v>
       </c>
-      <c r="Q4" s="13">
+      <c r="Q4" s="11">
         <f>'Table 1a'!Q4</f>
         <v>-0.22459999999999999</v>
       </c>
-      <c r="R4" s="10">
+      <c r="R4" s="8">
         <f>'Table 1a'!R4</f>
         <v>-0.2205</v>
       </c>
-      <c r="S4" s="67">
+      <c r="S4" s="53">
         <f>'Table 1a'!S4</f>
         <v>-1.7637</v>
       </c>
-      <c r="T4" s="73" t="str">
+      <c r="T4" s="59" t="str">
         <f>'Table 1a'!T4</f>
         <v>–</v>
       </c>
-      <c r="U4" s="85"/>
       <c r="V4" s="3" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="1:22" s="54" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A5" s="62" t="s">
+    <row r="5" spans="1:22" ht="17" x14ac:dyDescent="0.2">
+      <c r="A5" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="10">
+      <c r="B5" s="8">
         <f>'Table 1a'!B5</f>
         <v>0.60029999999999994</v>
       </c>
-      <c r="C5" s="10">
+      <c r="C5" s="8">
         <f>'Table 1a'!C5</f>
         <v>0.95799999999999996</v>
       </c>
-      <c r="D5" s="88">
+      <c r="D5" s="67">
         <f>'Table 1a'!D5</f>
         <v>4.5678000000000001</v>
       </c>
-      <c r="E5" s="11">
+      <c r="E5" s="9">
         <f>'Table 1a'!E5</f>
         <v>1.9723999999999999</v>
       </c>
-      <c r="F5" s="11">
+      <c r="F5" s="9">
         <f>'Table 1a'!F5</f>
         <v>0.307</v>
       </c>
-      <c r="G5" s="52" t="str">
+      <c r="G5" s="39" t="str">
         <f>'Table 1a'!G5</f>
         <v>N/A</v>
       </c>
-      <c r="H5" s="53" t="str">
+      <c r="H5" s="40" t="str">
         <f>'Table 1a'!H5</f>
         <v>N/A</v>
       </c>
-      <c r="I5" s="10">
+      <c r="I5" s="8">
         <f>'Table 1a'!I5</f>
         <v>2.3099999999999999E-2</v>
       </c>
-      <c r="J5" s="13">
+      <c r="J5" s="11">
         <f>'Table 1a'!J5</f>
         <v>6.7199999999999996E-2</v>
       </c>
-      <c r="K5" s="10">
+      <c r="K5" s="8">
         <f>'Table 1a'!K5</f>
         <v>0.01</v>
       </c>
-      <c r="L5" s="10">
+      <c r="L5" s="8">
         <f>'Table 1a'!L5</f>
         <v>-3.04E-2</v>
       </c>
-      <c r="M5" s="10">
+      <c r="M5" s="8">
         <f>'Table 1a'!M5</f>
         <v>1.9699999999999999E-2</v>
       </c>
-      <c r="N5" s="13">
+      <c r="N5" s="11">
         <f>'Table 1a'!N5</f>
         <v>-0.35770000000000002</v>
       </c>
-      <c r="O5" s="10">
+      <c r="O5" s="82">
         <f>'Table 1a'!O5</f>
         <v>-0.25750000000000001</v>
       </c>
-      <c r="P5" s="63">
+      <c r="P5" s="83">
         <f>'Table 1a'!P5</f>
         <v>-0.26019999999999999</v>
       </c>
-      <c r="Q5" s="13">
+      <c r="Q5" s="11">
         <f>'Table 1a'!Q5</f>
         <v>-0.40239999999999998</v>
       </c>
-      <c r="R5" s="10">
+      <c r="R5" s="8">
         <f>'Table 1a'!R5</f>
         <v>-0.36170000000000002</v>
       </c>
-      <c r="S5" s="67">
+      <c r="S5" s="53">
         <f>'Table 1a'!S5</f>
         <v>-3.2551999999999999</v>
       </c>
-      <c r="T5" s="73" t="str">
+      <c r="T5" s="59" t="str">
         <f>'Table 1a'!T5</f>
         <v>–</v>
       </c>
-      <c r="U5" s="85"/>
       <c r="V5" s="3" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="6" spans="1:22" s="54" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A6" s="62" t="s">
+    <row r="6" spans="1:22" ht="17" x14ac:dyDescent="0.2">
+      <c r="A6" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="10">
+      <c r="B6" s="8">
         <f>'Table 1a'!B6</f>
         <v>0.50560000000000005</v>
       </c>
-      <c r="C6" s="10">
+      <c r="C6" s="8">
         <f>'Table 1a'!C6</f>
         <v>0.50770000000000004</v>
       </c>
-      <c r="D6" s="88">
+      <c r="D6" s="67">
         <f>'Table 1a'!D6</f>
         <v>1.3792</v>
       </c>
-      <c r="E6" s="11">
+      <c r="E6" s="9">
         <f>'Table 1a'!E6</f>
         <v>3.8016000000000001</v>
       </c>
-      <c r="F6" s="11">
+      <c r="F6" s="9">
         <f>'Table 1a'!F6</f>
         <v>0.16300000000000001</v>
       </c>
-      <c r="G6" s="49">
+      <c r="G6" s="37">
         <f>'Table 1a'!G6</f>
         <v>0.16270000000000001</v>
       </c>
-      <c r="H6" s="10">
+      <c r="H6" s="8">
         <f>'Table 1a'!H6</f>
         <v>3.0999999999999999E-3</v>
       </c>
-      <c r="I6" s="10">
+      <c r="I6" s="8">
         <f>'Table 1a'!I6</f>
         <v>1.3599999999999999E-2</v>
       </c>
-      <c r="J6" s="13">
+      <c r="J6" s="11">
         <f>'Table 1a'!J6</f>
         <v>1.3599999999999999E-2</v>
       </c>
-      <c r="K6" s="10">
+      <c r="K6" s="8">
         <f>'Table 1a'!K6</f>
         <v>3.5000000000000001E-3</v>
       </c>
-      <c r="L6" s="10">
+      <c r="L6" s="8">
         <f>'Table 1a'!L6</f>
         <v>1.38E-2</v>
       </c>
-      <c r="M6" s="10">
+      <c r="M6" s="8">
         <f>'Table 1a'!M6</f>
         <v>8.6999999999999994E-3</v>
       </c>
-      <c r="N6" s="13">
+      <c r="N6" s="11">
         <f>'Table 1a'!N6</f>
         <v>-2.0999999999999999E-3</v>
       </c>
-      <c r="O6" s="87">
+      <c r="O6" s="82">
         <f>'Table 1a'!O6</f>
         <v>3.5000000000000001E-3</v>
       </c>
-      <c r="P6" s="103">
+      <c r="P6" s="83">
         <f>'Table 1a'!P6</f>
         <v>1.35E-2</v>
       </c>
-      <c r="Q6" s="13">
+      <c r="Q6" s="11">
         <f>'Table 1a'!Q6</f>
         <v>6.3799999999999996E-2</v>
       </c>
-      <c r="R6" s="10">
+      <c r="R6" s="8">
         <f>'Table 1a'!R6</f>
         <v>-2E-3</v>
       </c>
-      <c r="S6" s="67">
+      <c r="S6" s="53">
         <f>'Table 1a'!S6</f>
         <v>-1.38E-2</v>
       </c>
-      <c r="T6" s="73" t="str">
+      <c r="T6" s="59" t="str">
         <f>'Table 1a'!T6</f>
         <v>+</v>
       </c>
-      <c r="U6" s="85"/>
       <c r="V6" s="3" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:22" ht="17" x14ac:dyDescent="0.2">
-      <c r="A7" s="62" t="s">
+      <c r="A7" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="10">
+      <c r="B7" s="8">
         <f>'Table 1a'!B7</f>
         <v>0.51500000000000001</v>
       </c>
-      <c r="C7" s="10">
+      <c r="C7" s="8">
         <f>'Table 1a'!C7</f>
         <v>0.32250000000000001</v>
       </c>
-      <c r="D7" s="88">
+      <c r="D7" s="67">
         <f>'Table 1a'!D7</f>
         <v>-11.805300000000001</v>
       </c>
-      <c r="E7" s="11">
+      <c r="E7" s="9">
         <f>'Table 1a'!E7</f>
         <v>4.3503999999999996</v>
       </c>
-      <c r="F7" s="11">
+      <c r="F7" s="9">
         <f>'Table 1a'!F7</f>
         <v>0.12989999999999999</v>
       </c>
-      <c r="G7" s="49">
+      <c r="G7" s="37">
         <f>'Table 1a'!G7</f>
         <v>36.517400000000002</v>
       </c>
-      <c r="H7" s="10">
+      <c r="H7" s="8">
         <f>'Table 1a'!H7</f>
         <v>0.1106</v>
       </c>
-      <c r="I7" s="10">
+      <c r="I7" s="8">
         <f>'Table 1a'!I7</f>
         <v>5.7000000000000002E-2</v>
       </c>
-      <c r="J7" s="13">
+      <c r="J7" s="11">
         <f>'Table 1a'!J7</f>
         <v>0.2172</v>
       </c>
-      <c r="K7" s="10">
+      <c r="K7" s="8">
         <f>'Table 1a'!K7</f>
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="L7" s="10">
+      <c r="L7" s="8">
         <f>'Table 1a'!L7</f>
         <v>0.20979999999999999</v>
       </c>
-      <c r="M7" s="10">
+      <c r="M7" s="8">
         <f>'Table 1a'!M7</f>
         <v>6.6600000000000006E-2</v>
       </c>
-      <c r="N7" s="13">
+      <c r="N7" s="11">
         <f>'Table 1a'!N7</f>
         <v>0.1925</v>
       </c>
-      <c r="O7" s="10">
+      <c r="O7" s="8">
         <f>'Table 1a'!O7</f>
         <v>0.20760000000000001</v>
       </c>
-      <c r="P7" s="63">
+      <c r="P7" s="49">
         <f>'Table 1a'!P7</f>
         <v>0.2429</v>
       </c>
-      <c r="Q7" s="13">
+      <c r="Q7" s="11">
         <f>'Table 1a'!Q7</f>
         <v>0.216</v>
       </c>
-      <c r="R7" s="10">
+      <c r="R7" s="8">
         <f>'Table 1a'!R7</f>
         <v>0.1653</v>
       </c>
-      <c r="S7" s="67">
+      <c r="S7" s="53">
         <f>'Table 1a'!S7</f>
         <v>2.1486999999999998</v>
       </c>
-      <c r="T7" s="73" t="str">
+      <c r="T7" s="59" t="str">
         <f>'Table 1a'!T7</f>
         <v>+</v>
       </c>
-      <c r="U7" s="85"/>
       <c r="V7" s="3" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:22" ht="17" x14ac:dyDescent="0.2">
-      <c r="A8" s="62" t="s">
+      <c r="A8" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="10">
+      <c r="B8" s="8">
         <f>'Table 1a'!B8</f>
         <v>0.5131</v>
       </c>
-      <c r="C8" s="10">
+      <c r="C8" s="8">
         <f>'Table 1a'!C8</f>
         <v>0.38979999999999998</v>
       </c>
-      <c r="D8" s="88">
+      <c r="D8" s="67">
         <f>'Table 1a'!D8</f>
         <v>-8.4352999999999998</v>
       </c>
-      <c r="E8" s="11">
+      <c r="E8" s="9">
         <f>'Table 1a'!E8</f>
         <v>4.0765000000000002</v>
       </c>
-      <c r="F8" s="11">
+      <c r="F8" s="9">
         <f>'Table 1a'!F8</f>
         <v>0.14530000000000001</v>
       </c>
-      <c r="G8" s="49">
+      <c r="G8" s="37">
         <f>'Table 1a'!G8</f>
         <v>22.170300000000001</v>
       </c>
-      <c r="H8" s="10">
+      <c r="H8" s="8">
         <f>'Table 1a'!H8</f>
         <v>6.9400000000000003E-2</v>
       </c>
-      <c r="I8" s="10">
+      <c r="I8" s="8">
         <f>'Table 1a'!I8</f>
         <v>4.1700000000000001E-2</v>
       </c>
-      <c r="J8" s="13">
+      <c r="J8" s="11">
         <f>'Table 1a'!J8</f>
         <v>0.155</v>
       </c>
-      <c r="K8" s="10">
+      <c r="K8" s="8">
         <f>'Table 1a'!K8</f>
         <v>3.3300000000000003E-2</v>
       </c>
-      <c r="L8" s="10">
+      <c r="L8" s="8">
         <f>'Table 1a'!L8</f>
         <v>0.14910000000000001</v>
       </c>
-      <c r="M8" s="10">
+      <c r="M8" s="8">
         <f>'Table 1a'!M8</f>
         <v>4.3900000000000002E-2</v>
       </c>
-      <c r="N8" s="13">
+      <c r="N8" s="11">
         <f>'Table 1a'!N8</f>
         <v>0.1232</v>
       </c>
-      <c r="O8" s="10">
+      <c r="O8" s="8">
         <f>'Table 1a'!O8</f>
         <v>0.1363</v>
       </c>
-      <c r="P8" s="63">
+      <c r="P8" s="49">
         <f>'Table 1a'!P8</f>
         <v>0.16339999999999999</v>
       </c>
-      <c r="Q8" s="13">
+      <c r="Q8" s="11">
         <f>'Table 1a'!Q8</f>
         <v>0.11020000000000001</v>
       </c>
-      <c r="R8" s="10">
+      <c r="R8" s="8">
         <f>'Table 1a'!R8</f>
         <v>0.1067</v>
       </c>
-      <c r="S8" s="67">
+      <c r="S8" s="53">
         <f>'Table 1a'!S8</f>
         <v>1.7071000000000001</v>
       </c>
-      <c r="T8" s="73" t="str">
+      <c r="T8" s="59" t="str">
         <f>'Table 1a'!T8</f>
         <v>+</v>
       </c>
-      <c r="U8" s="85"/>
       <c r="V8" s="3" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:22" ht="17" x14ac:dyDescent="0.2">
-      <c r="A9" s="62" t="s">
+      <c r="A9" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="10">
+      <c r="B9" s="8">
         <f>'Table 1a'!B9</f>
         <v>0.52939999999999998</v>
       </c>
-      <c r="C9" s="10">
+      <c r="C9" s="8">
         <f>'Table 1a'!C9</f>
         <v>0.41670000000000001</v>
       </c>
-      <c r="D9" s="88">
+      <c r="D9" s="67">
         <f>'Table 1a'!D9</f>
         <v>-2.8304999999999998</v>
       </c>
-      <c r="E9" s="11">
+      <c r="E9" s="9">
         <f>'Table 1a'!E9</f>
         <v>3.4077000000000002</v>
       </c>
-      <c r="F9" s="11">
+      <c r="F9" s="9">
         <f>'Table 1a'!F9</f>
         <v>0.19350000000000001</v>
       </c>
-      <c r="G9" s="49">
+      <c r="G9" s="37">
         <f>'Table 1a'!G9</f>
         <v>23.663499999999999</v>
       </c>
-      <c r="H9" s="10">
+      <c r="H9" s="8">
         <f>'Table 1a'!H9</f>
         <v>8.7400000000000005E-2</v>
       </c>
-      <c r="I9" s="10">
+      <c r="I9" s="8">
         <f>'Table 1a'!I9</f>
         <v>5.74E-2</v>
       </c>
-      <c r="J9" s="13">
+      <c r="J9" s="11">
         <f>'Table 1a'!J9</f>
         <v>0.16919999999999999</v>
       </c>
-      <c r="K9" s="10">
+      <c r="K9" s="8">
         <f>'Table 1a'!K9</f>
         <v>4.7100000000000003E-2</v>
       </c>
-      <c r="L9" s="10">
+      <c r="L9" s="8">
         <f>'Table 1a'!L9</f>
         <v>0.15540000000000001</v>
       </c>
-      <c r="M9" s="10">
+      <c r="M9" s="8">
         <f>'Table 1a'!M9</f>
         <v>5.74E-2</v>
       </c>
-      <c r="N9" s="13">
+      <c r="N9" s="11">
         <f>'Table 1a'!N9</f>
         <v>0.11269999999999999</v>
       </c>
-      <c r="O9" s="10">
+      <c r="O9" s="8">
         <f>'Table 1a'!O9</f>
         <v>0.1421</v>
       </c>
-      <c r="P9" s="63">
+      <c r="P9" s="49">
         <f>'Table 1a'!P9</f>
         <v>0.1835</v>
       </c>
-      <c r="Q9" s="13">
+      <c r="Q9" s="11">
         <f>'Table 1a'!Q9</f>
         <v>0.13880000000000001</v>
       </c>
-      <c r="R9" s="10">
+      <c r="R9" s="8">
         <f>'Table 1a'!R9</f>
         <v>0.10589999999999999</v>
       </c>
-      <c r="S9" s="67">
+      <c r="S9" s="53">
         <f>'Table 1a'!S9</f>
         <v>1.9068000000000001</v>
       </c>
-      <c r="T9" s="73" t="str">
+      <c r="T9" s="59" t="str">
         <f>'Table 1a'!T9</f>
         <v>+</v>
       </c>
-      <c r="U9" s="85"/>
       <c r="V9" s="3" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:22" ht="17" x14ac:dyDescent="0.2">
-      <c r="A10" s="62" t="s">
+      <c r="A10" s="48" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="10">
+      <c r="B10" s="8">
         <f>'Table 1a'!B10</f>
         <v>0.41589999999999999</v>
       </c>
-      <c r="C10" s="10">
+      <c r="C10" s="8">
         <f>'Table 1a'!C10</f>
         <v>0.2107</v>
       </c>
-      <c r="D10" s="88">
+      <c r="D10" s="67">
         <f>'Table 1a'!D10</f>
         <v>3.4416000000000002</v>
       </c>
-      <c r="E10" s="11">
+      <c r="E10" s="9">
         <f>'Table 1a'!E10</f>
         <v>0.47299999999999998</v>
       </c>
-      <c r="F10" s="11">
+      <c r="F10" s="9">
         <f>'Table 1a'!F10</f>
         <v>1.9142999999999999</v>
       </c>
-      <c r="G10" s="49">
+      <c r="G10" s="37">
         <f>'Table 1a'!G10</f>
         <v>34.854599999999998</v>
       </c>
-      <c r="H10" s="10">
+      <c r="H10" s="8">
         <f>'Table 1a'!H10</f>
         <v>5.8999999999999999E-3</v>
       </c>
-      <c r="I10" s="10">
+      <c r="I10" s="8">
         <f>'Table 1a'!I10</f>
         <v>4.1300000000000003E-2</v>
       </c>
-      <c r="J10" s="13">
+      <c r="J10" s="11">
         <f>'Table 1a'!J10</f>
         <v>0.1835</v>
       </c>
-      <c r="K10" s="10">
+      <c r="K10" s="8">
         <f>'Table 1a'!K10</f>
         <v>3.2399999999999998E-2</v>
       </c>
-      <c r="L10" s="10">
+      <c r="L10" s="8">
         <f>'Table 1a'!L10</f>
         <v>-3.1899999999999998E-2</v>
       </c>
-      <c r="M10" s="10">
+      <c r="M10" s="8">
         <f>'Table 1a'!M10</f>
         <v>6.4600000000000005E-2</v>
       </c>
-      <c r="N10" s="13">
+      <c r="N10" s="11">
         <f>'Table 1a'!N10</f>
         <v>0.20530000000000001</v>
       </c>
-      <c r="O10" s="10">
+      <c r="O10" s="8">
         <f>'Table 1a'!O10</f>
         <v>0.1212</v>
       </c>
-      <c r="P10" s="63">
+      <c r="P10" s="49">
         <f>'Table 1a'!P10</f>
         <v>0.24959999999999999</v>
       </c>
-      <c r="Q10" s="13">
+      <c r="Q10" s="11">
         <f>'Table 1a'!Q10</f>
         <v>0.23380000000000001</v>
       </c>
-      <c r="R10" s="10">
+      <c r="R10" s="8">
         <f>'Table 1a'!R10</f>
         <v>0.2369</v>
       </c>
-      <c r="S10" s="67">
+      <c r="S10" s="53">
         <f>'Table 1a'!S10</f>
         <v>2.1324000000000001</v>
       </c>
-      <c r="T10" s="73" t="str">
+      <c r="T10" s="59" t="str">
         <f>'Table 1a'!T10</f>
         <v>+</v>
       </c>
-      <c r="U10" s="85"/>
       <c r="V10" s="3" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:22" ht="17" x14ac:dyDescent="0.2">
-      <c r="A11" s="62" t="s">
+      <c r="A11" s="48" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="10">
+      <c r="B11" s="8">
         <f>'Table 1a'!B11</f>
         <v>0.40429999999999999</v>
       </c>
-      <c r="C11" s="10">
+      <c r="C11" s="8">
         <f>'Table 1a'!C11</f>
         <v>0.28939999999999999</v>
       </c>
-      <c r="D11" s="88">
+      <c r="D11" s="67">
         <f>'Table 1a'!D11</f>
         <v>2.2014999999999998</v>
       </c>
-      <c r="E11" s="11">
+      <c r="E11" s="9">
         <f>'Table 1a'!E11</f>
         <v>1.17</v>
       </c>
-      <c r="F11" s="11">
+      <c r="F11" s="9">
         <f>'Table 1a'!F11</f>
         <v>0.65469999999999995</v>
       </c>
-      <c r="G11" s="49">
+      <c r="G11" s="37">
         <f>'Table 1a'!G11</f>
         <v>17.246200000000002</v>
       </c>
-      <c r="H11" s="10">
+      <c r="H11" s="8">
         <f>'Table 1a'!H11</f>
         <v>-2.9600000000000001E-2</v>
       </c>
-      <c r="I11" s="10">
+      <c r="I11" s="8">
         <f>'Table 1a'!I11</f>
         <v>2.1399999999999999E-2</v>
       </c>
-      <c r="J11" s="13">
+      <c r="J11" s="11">
         <f>'Table 1a'!J11</f>
         <v>5.4600000000000003E-2</v>
       </c>
-      <c r="K11" s="10">
+      <c r="K11" s="8">
         <f>'Table 1a'!K11</f>
         <v>1.35E-2</v>
       </c>
-      <c r="L11" s="10">
+      <c r="L11" s="8">
         <f>'Table 1a'!L11</f>
         <v>-8.3299999999999999E-2</v>
       </c>
-      <c r="M11" s="10">
+      <c r="M11" s="8">
         <f>'Table 1a'!M11</f>
         <v>5.4199999999999998E-2</v>
       </c>
-      <c r="N11" s="13">
+      <c r="N11" s="11">
         <f>'Table 1a'!N11</f>
         <v>0.115</v>
       </c>
-      <c r="O11" s="10">
+      <c r="O11" s="8">
         <f>'Table 1a'!O11</f>
         <v>1.9300000000000001E-2</v>
       </c>
-      <c r="P11" s="63">
+      <c r="P11" s="49">
         <f>'Table 1a'!P11</f>
         <v>9.8699999999999996E-2</v>
       </c>
-      <c r="Q11" s="13">
+      <c r="Q11" s="11">
         <f>'Table 1a'!Q11</f>
         <v>0.1273</v>
       </c>
-      <c r="R11" s="10">
+      <c r="R11" s="8">
         <f>'Table 1a'!R11</f>
         <v>0.11840000000000001</v>
       </c>
-      <c r="S11" s="67">
+      <c r="S11" s="53">
         <f>'Table 1a'!S11</f>
         <v>4.2638999999999996</v>
       </c>
-      <c r="T11" s="73" t="str">
+      <c r="T11" s="59" t="str">
         <f>'Table 1a'!T11</f>
         <v>+</v>
       </c>
-      <c r="U11" s="85"/>
       <c r="V11" s="3" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:22" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A12" s="64" t="s">
+      <c r="A12" s="50" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="15">
+      <c r="B12" s="13">
         <f>'Table 1a'!B12</f>
         <v>0.43</v>
       </c>
-      <c r="C12" s="15">
+      <c r="C12" s="13">
         <f>'Table 1a'!C12</f>
         <v>0.1583</v>
       </c>
-      <c r="D12" s="89">
+      <c r="D12" s="68">
         <f>'Table 1a'!D12</f>
         <v>4.883</v>
       </c>
-      <c r="E12" s="16">
+      <c r="E12" s="14">
         <f>'Table 1a'!E12</f>
         <v>0.86960000000000004</v>
       </c>
-      <c r="F12" s="16">
+      <c r="F12" s="14">
         <f>'Table 1a'!F12</f>
         <v>0.94989999999999997</v>
       </c>
-      <c r="G12" s="50">
+      <c r="G12" s="38">
         <f>'Table 1a'!G12</f>
         <v>47.914400000000001</v>
       </c>
-      <c r="H12" s="15">
+      <c r="H12" s="13">
         <f>'Table 1a'!H12</f>
         <v>4.24E-2</v>
       </c>
-      <c r="I12" s="15">
+      <c r="I12" s="13">
         <f>'Table 1a'!I12</f>
         <v>4.7300000000000002E-2</v>
       </c>
-      <c r="J12" s="18">
+      <c r="J12" s="16">
         <f>'Table 1a'!J12</f>
         <v>0.1502</v>
       </c>
-      <c r="K12" s="15">
+      <c r="K12" s="13">
         <f>'Table 1a'!K12</f>
         <v>2.3800000000000002E-2</v>
       </c>
-      <c r="L12" s="15">
+      <c r="L12" s="13">
         <f>'Table 1a'!L12</f>
         <v>6.4999999999999997E-3</v>
       </c>
-      <c r="M12" s="15">
+      <c r="M12" s="13">
         <f>'Table 1a'!M12</f>
         <v>5.1299999999999998E-2</v>
       </c>
-      <c r="N12" s="18">
+      <c r="N12" s="16">
         <f>'Table 1a'!N12</f>
         <v>0.2717</v>
       </c>
-      <c r="O12" s="15">
+      <c r="O12" s="13">
         <f>'Table 1a'!O12</f>
         <v>0.20169999999999999</v>
       </c>
-      <c r="P12" s="65">
+      <c r="P12" s="51">
         <f>'Table 1a'!P12</f>
         <v>0.28079999999999999</v>
       </c>
-      <c r="Q12" s="18">
+      <c r="Q12" s="16">
         <f>'Table 1a'!Q12</f>
         <v>0.2702</v>
       </c>
-      <c r="R12" s="15">
+      <c r="R12" s="13">
         <f>'Table 1a'!R12</f>
         <v>0.26300000000000001</v>
       </c>
-      <c r="S12" s="68">
+      <c r="S12" s="54">
         <f>'Table 1a'!S12</f>
         <v>1.8407</v>
       </c>
-      <c r="T12" s="75" t="str">
+      <c r="T12" s="61" t="str">
         <f>'Table 1a'!T12</f>
         <v>+</v>
       </c>
-      <c r="U12" s="86"/>
+      <c r="U12" s="55"/>
       <c r="V12" s="4" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="14" spans="1:22" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A14" s="20"/>
-      <c r="B14" s="21"/>
-      <c r="C14" s="22"/>
-      <c r="D14" s="46" t="s">
+      <c r="A14" s="18"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="36" t="s">
         <v>49</v>
       </c>
-      <c r="E14" s="22"/>
-      <c r="F14" s="44"/>
-      <c r="G14" s="94" t="str">
+      <c r="E14" s="13"/>
+      <c r="F14" s="34"/>
+      <c r="G14" s="73" t="str">
         <f>G1</f>
         <v xml:space="preserve"> Decl</v>
       </c>
-      <c r="H14" s="95" t="str">
+      <c r="H14" s="74" t="str">
         <f>H1</f>
         <v xml:space="preserve"> LO</v>
       </c>
-      <c r="I14" s="96" t="str">
+      <c r="I14" s="75" t="str">
         <f>I1</f>
         <v xml:space="preserve"> MM</v>
       </c>
-      <c r="J14" s="98" t="str">
+      <c r="J14" s="77" t="str">
         <f>J1</f>
         <v xml:space="preserve"> BS_50</v>
       </c>
-      <c r="K14" s="97" t="str">
+      <c r="K14" s="76" t="str">
         <f t="shared" ref="K14:M14" si="0">K1</f>
         <v xml:space="preserve"> BV_50</v>
       </c>
-      <c r="L14" s="99" t="str">
+      <c r="L14" s="78" t="str">
         <f>L1</f>
         <v>β</v>
       </c>
-      <c r="M14" s="97" t="str">
+      <c r="M14" s="76" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> GS</v>
       </c>
-      <c r="N14" s="26" t="str">
+      <c r="N14" s="22" t="str">
         <f>N1</f>
         <v xml:space="preserve"> PR</v>
       </c>
-      <c r="O14" s="25" t="str">
+      <c r="O14" s="21" t="str">
         <f>O1</f>
         <v xml:space="preserve"> EG</v>
       </c>
-      <c r="P14" s="25" t="str">
+      <c r="P14" s="21" t="str">
         <f>P1</f>
         <v>𝛾</v>
       </c>
-      <c r="Q14" s="28"/>
-      <c r="R14" s="22"/>
-      <c r="S14" s="22"/>
-      <c r="T14" s="69"/>
-      <c r="U14" s="69"/>
+      <c r="Q14" s="16"/>
+      <c r="R14" s="13"/>
+      <c r="S14" s="13"/>
+      <c r="T14" s="55"/>
+      <c r="U14" s="55"/>
       <c r="V14" s="5" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:22" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="30"/>
-      <c r="D15" s="34" t="s">
+      <c r="A15" s="25"/>
+      <c r="D15" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="G15" s="36" t="str">
+      <c r="G15" s="27" t="str">
         <f t="shared" ref="G15:I25" si="1">IF(OR(AND($R2 &gt; 0, G2 &lt; 0), AND($R2 &lt; 0, G2 &gt; 0)), "*", "")</f>
         <v/>
       </c>
-      <c r="H15" s="37" t="str">
+      <c r="H15" s="28" t="str">
         <f t="shared" si="1"/>
         <v>*</v>
       </c>
-      <c r="I15" s="37" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="J15" s="36" t="str">
+      <c r="I15" s="28" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="J15" s="27" t="str">
         <f t="shared" ref="J15:P25" si="2">IF(OR(AND($R2 &gt; 0, J2 &lt; 0), AND($R2 &lt; 0, J2 &gt; 0)), "X", "")</f>
         <v/>
       </c>
-      <c r="K15" s="37" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="L15" s="37" t="str">
+      <c r="K15" s="28" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="L15" s="28" t="str">
         <f t="shared" si="2"/>
         <v>X</v>
       </c>
-      <c r="M15" s="37" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="N15" s="36" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="O15" s="37" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="P15" s="37" t="str">
+      <c r="M15" s="28" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="N15" s="27" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="O15" s="28" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="P15" s="28" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="16" spans="1:22" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="30"/>
-      <c r="D16" s="34" t="s">
+      <c r="A16" s="25"/>
+      <c r="D16" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="G16" s="51" t="str">
+      <c r="G16" s="27" t="str">
         <f t="shared" si="1"/>
         <v>*</v>
       </c>
-      <c r="H16" s="37" t="str">
+      <c r="H16" s="28" t="str">
         <f t="shared" si="1"/>
         <v>*</v>
       </c>
-      <c r="I16" s="37" t="str">
+      <c r="I16" s="28" t="str">
         <f t="shared" si="1"/>
         <v>*</v>
       </c>
-      <c r="J16" s="100" t="str">
+      <c r="J16" s="79" t="str">
         <f t="shared" si="2"/>
         <v>X</v>
       </c>
-      <c r="K16" s="37" t="str">
+      <c r="K16" s="28" t="str">
         <f t="shared" si="2"/>
         <v>X</v>
       </c>
-      <c r="L16" s="101" t="str">
+      <c r="L16" s="80" t="str">
         <f t="shared" si="2"/>
         <v>X</v>
       </c>
-      <c r="M16" s="37" t="str">
+      <c r="M16" s="28" t="str">
         <f t="shared" si="2"/>
         <v>X</v>
       </c>
-      <c r="N16" s="36" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="O16" s="37" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="P16" s="102" t="str">
+      <c r="N16" s="27" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="O16" s="28" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="P16" s="81" t="str">
         <f t="shared" si="2"/>
         <v>X</v>
       </c>
       <c r="V16"/>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A17" s="30"/>
-      <c r="D17" s="34" t="s">
+      <c r="A17" s="25"/>
+      <c r="D17" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="G17" s="36" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="H17" s="37" t="str">
+      <c r="G17" s="27" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H17" s="28" t="str">
         <f t="shared" si="1"/>
         <v>*</v>
       </c>
-      <c r="I17" s="37" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="J17" s="36" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="K17" s="37" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="L17" s="101" t="str">
+      <c r="I17" s="28" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="J17" s="27" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="K17" s="28" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="L17" s="80" t="str">
         <f t="shared" si="2"/>
         <v>X</v>
       </c>
-      <c r="M17" s="37" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="N17" s="36" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="O17" s="37" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="P17" s="37" t="str">
+      <c r="M17" s="28" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="N17" s="27" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="O17" s="28" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="P17" s="28" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="V17"/>
     </row>
     <row r="18" spans="1:22" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="30"/>
-      <c r="D18" s="34" t="s">
+      <c r="A18" s="25"/>
+      <c r="D18" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="G18" s="51" t="str">
+      <c r="G18" s="27" t="str">
         <f t="shared" si="1"/>
         <v>*</v>
       </c>
-      <c r="H18" s="37" t="str">
+      <c r="H18" s="28" t="str">
         <f t="shared" si="1"/>
         <v>*</v>
       </c>
-      <c r="I18" s="37" t="str">
+      <c r="I18" s="28" t="str">
         <f t="shared" si="1"/>
         <v>*</v>
       </c>
-      <c r="J18" s="100" t="str">
+      <c r="J18" s="79" t="str">
         <f t="shared" si="2"/>
         <v>X</v>
       </c>
-      <c r="K18" s="37" t="str">
+      <c r="K18" s="28" t="str">
         <f t="shared" si="2"/>
         <v>X</v>
       </c>
-      <c r="L18" s="37" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="M18" s="37" t="str">
+      <c r="L18" s="28" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="M18" s="28" t="str">
         <f t="shared" si="2"/>
         <v>X</v>
       </c>
-      <c r="N18" s="36" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="O18" s="37" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="P18" s="37" t="str">
+      <c r="N18" s="27" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="O18" s="28" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="P18" s="28" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="V18"/>
     </row>
     <row r="19" spans="1:22" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="30"/>
-      <c r="D19" s="34" t="s">
+      <c r="A19" s="25"/>
+      <c r="D19" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="G19" s="51" t="str">
+      <c r="G19" s="27" t="str">
         <f t="shared" si="1"/>
         <v>*</v>
       </c>
-      <c r="H19" s="37" t="str">
+      <c r="H19" s="28" t="str">
         <f t="shared" si="1"/>
         <v>*</v>
       </c>
-      <c r="I19" s="37" t="str">
+      <c r="I19" s="28" t="str">
         <f t="shared" si="1"/>
         <v>*</v>
       </c>
-      <c r="J19" s="100" t="str">
+      <c r="J19" s="79" t="str">
         <f t="shared" si="2"/>
         <v>X</v>
       </c>
-      <c r="K19" s="37" t="str">
+      <c r="K19" s="28" t="str">
         <f t="shared" si="2"/>
         <v>X</v>
       </c>
-      <c r="L19" s="101" t="str">
+      <c r="L19" s="80" t="str">
         <f t="shared" si="2"/>
         <v>X</v>
       </c>
-      <c r="M19" s="37" t="str">
+      <c r="M19" s="28" t="str">
         <f t="shared" si="2"/>
         <v>X</v>
       </c>
-      <c r="N19" s="51" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="O19" s="102" t="str">
+      <c r="N19" s="27" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="O19" s="81" t="str">
         <f t="shared" si="2"/>
         <v>X</v>
       </c>
-      <c r="P19" s="102" t="str">
+      <c r="P19" s="81" t="str">
         <f t="shared" si="2"/>
         <v>X</v>
       </c>
       <c r="V19"/>
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A20" s="30"/>
-      <c r="D20" s="34" t="s">
+      <c r="A20" s="25"/>
+      <c r="D20" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="G20" s="51" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="H20" s="37" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="I20" s="37" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="J20" s="36" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="K20" s="37" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="L20" s="37" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="M20" s="37" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="N20" s="36" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="O20" s="37" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="P20" s="37" t="str">
+      <c r="G20" s="27" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H20" s="28" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="I20" s="28" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="J20" s="27" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="K20" s="28" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="L20" s="28" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="M20" s="28" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="N20" s="27" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="O20" s="28" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="P20" s="28" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A21" s="30"/>
-      <c r="D21" s="34" t="s">
+      <c r="A21" s="25"/>
+      <c r="D21" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="G21" s="36" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="H21" s="37" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="I21" s="37" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="J21" s="36" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="K21" s="37" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="L21" s="37" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="M21" s="37" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="N21" s="36" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="O21" s="37" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="P21" s="37" t="str">
+      <c r="G21" s="27" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H21" s="28" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="I21" s="28" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="J21" s="27" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="K21" s="28" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="L21" s="28" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="M21" s="28" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="N21" s="27" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="O21" s="28" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="P21" s="28" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A22" s="30"/>
-      <c r="D22" s="34" t="s">
+      <c r="A22" s="25"/>
+      <c r="D22" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="G22" s="36" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="H22" s="37" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="I22" s="37" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="J22" s="36" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="K22" s="37" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="L22" s="37" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="M22" s="37" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="N22" s="36" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="O22" s="37" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="P22" s="37" t="str">
+      <c r="G22" s="27" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H22" s="28" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="I22" s="28" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="J22" s="27" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="K22" s="28" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="L22" s="28" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="M22" s="28" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="N22" s="27" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="O22" s="28" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="P22" s="28" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A23" s="30"/>
-      <c r="D23" s="34" t="s">
+      <c r="A23" s="25"/>
+      <c r="D23" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="G23" s="36" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="H23" s="37" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="I23" s="37" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="J23" s="36" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="K23" s="37" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="L23" s="101" t="str">
+      <c r="G23" s="27" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H23" s="28" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="I23" s="28" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="J23" s="27" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="K23" s="28" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="L23" s="80" t="str">
         <f t="shared" si="2"/>
         <v>X</v>
       </c>
-      <c r="M23" s="37" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="N23" s="36" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="O23" s="37" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="P23" s="37" t="str">
+      <c r="M23" s="28" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="N23" s="27" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="O23" s="28" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="P23" s="28" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A24" s="30"/>
-      <c r="D24" s="34" t="s">
+      <c r="A24" s="25"/>
+      <c r="D24" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="G24" s="36" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="H24" s="37" t="str">
+      <c r="G24" s="27" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H24" s="28" t="str">
         <f t="shared" si="1"/>
         <v>*</v>
       </c>
-      <c r="I24" s="37" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="J24" s="36" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="K24" s="37" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="L24" s="101" t="str">
+      <c r="I24" s="28" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="J24" s="27" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="K24" s="28" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="L24" s="80" t="str">
         <f t="shared" si="2"/>
         <v>X</v>
       </c>
-      <c r="M24" s="37" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="N24" s="36" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="O24" s="37" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="P24" s="37" t="str">
+      <c r="M24" s="28" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="N24" s="27" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="O24" s="28" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="P24" s="28" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="25" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="38"/>
-      <c r="B25" s="21"/>
-      <c r="C25" s="22"/>
-      <c r="D25" s="39" t="s">
+      <c r="A25" s="29"/>
+      <c r="B25" s="17"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="E25" s="22"/>
-      <c r="G25" s="40" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="H25" s="41" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="I25" s="41" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="J25" s="40" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="K25" s="41" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="L25" s="41" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="M25" s="41" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="N25" s="40" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="O25" s="41" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="P25" s="41" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="Q25" s="28"/>
-      <c r="R25" s="22"/>
-      <c r="S25" s="22"/>
-      <c r="T25" s="69"/>
-      <c r="U25" s="69"/>
-      <c r="V25" s="7"/>
-    </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="K26" s="11"/>
+      <c r="E25" s="13"/>
+      <c r="G25" s="31" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H25" s="32" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="I25" s="32" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="J25" s="31" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="K25" s="32" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="L25" s="32" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="M25" s="32" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="N25" s="31" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="O25" s="32" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="P25" s="32" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="Q25" s="16"/>
+      <c r="R25" s="13"/>
+      <c r="S25" s="13"/>
+      <c r="T25" s="55"/>
+      <c r="U25" s="55"/>
+      <c r="V25" s="4"/>
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="D30" s="90"/>
-      <c r="E30" s="32" t="s">
+      <c r="D30" s="69"/>
+      <c r="E30" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="G30" s="42" t="s">
+      <c r="G30" s="10" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="D31" s="92"/>
-      <c r="E31" s="32" t="s">
+      <c r="D31" s="71"/>
+      <c r="E31" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="G31" s="42" t="s">
+      <c r="G31" s="10" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="32" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="D32" s="91"/>
-      <c r="E32" s="32" t="s">
+      <c r="D32" s="70"/>
+      <c r="E32" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="G32" s="42" t="s">
+      <c r="G32" s="10" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="33" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D33" s="93"/>
-      <c r="E33" s="32" t="s">
+      <c r="D33" s="72"/>
+      <c r="E33" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="G33" s="42" t="s">
+      <c r="G33" s="10" t="s">
         <v>70</v>
       </c>
     </row>
@@ -4431,7 +4219,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="62" t="s">
         <v>55</v>
       </c>
       <c r="B1" t="s">
@@ -4490,7 +4278,7 @@
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A2" s="76" t="s">
+      <c r="A2" s="62" t="s">
         <v>15</v>
       </c>
       <c r="B2">
@@ -4549,7 +4337,7 @@
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A3" s="76" t="s">
+      <c r="A3" s="62" t="s">
         <v>17</v>
       </c>
       <c r="B3">
@@ -4608,7 +4396,7 @@
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A4" s="76" t="s">
+      <c r="A4" s="62" t="s">
         <v>18</v>
       </c>
       <c r="B4">
@@ -4667,7 +4455,7 @@
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A5" s="76" t="s">
+      <c r="A5" s="62" t="s">
         <v>16</v>
       </c>
       <c r="B5">
@@ -4726,7 +4514,7 @@
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A6" s="76" t="s">
+      <c r="A6" s="62" t="s">
         <v>19</v>
       </c>
       <c r="B6">
@@ -4785,7 +4573,7 @@
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A7" s="76" t="s">
+      <c r="A7" s="62" t="s">
         <v>21</v>
       </c>
       <c r="B7">
@@ -4844,7 +4632,7 @@
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A8" s="76" t="s">
+      <c r="A8" s="62" t="s">
         <v>22</v>
       </c>
       <c r="B8">
@@ -4903,7 +4691,7 @@
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A9" s="76" t="s">
+      <c r="A9" s="62" t="s">
         <v>20</v>
       </c>
       <c r="B9">
@@ -4962,7 +4750,7 @@
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A10" s="76" t="s">
+      <c r="A10" s="62" t="s">
         <v>24</v>
       </c>
       <c r="B10">
@@ -5021,7 +4809,7 @@
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A11" s="76" t="s">
+      <c r="A11" s="62" t="s">
         <v>25</v>
       </c>
       <c r="B11">
@@ -5080,7 +4868,7 @@
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A12" s="76" t="s">
+      <c r="A12" s="62" t="s">
         <v>23</v>
       </c>
       <c r="B12">
